--- a/titlePilotStudy/data/DEU_jbh.xlsx
+++ b/titlePilotStudy/data/DEU_jbh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B02CA-ECD2-1E4A-A219-C8CB65B7E0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804CE8D1-8519-E94E-977D-6D26152F8296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="460" windowWidth="28520" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="481">
   <si>
     <t>Identifier</t>
   </si>
@@ -187,9 +187,6 @@
     <t>DEU004</t>
   </si>
   <si>
-    <t>Nürnberg. Zweiter Band</t>
-  </si>
-  <si>
     <t>Otto, Louise (1819-1895)</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>1855 (T1)</t>
   </si>
   <si>
-    <t>Der Sonnenwirt</t>
-  </si>
-  <si>
     <t>Kurz, Hermann (1813-1873)</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>DEU009</t>
   </si>
   <si>
-    <t>Das Vermächtnis des Pedlars</t>
-  </si>
-  <si>
     <t>DEU010</t>
   </si>
   <si>
@@ -307,9 +298,6 @@
     <t>1846 (T1)</t>
   </si>
   <si>
-    <t>Die Regulatoren in Arkansas. Aus dem Waldleben Amerikas</t>
-  </si>
-  <si>
     <t>Gerstäcker, Friedrich (1816-1872)</t>
   </si>
   <si>
@@ -340,9 +328,6 @@
     <t>DEU020</t>
   </si>
   <si>
-    <t>Sibylle</t>
-  </si>
-  <si>
     <t>Hahn-Hahn, Ida Gräfin von (1805-1880)</t>
   </si>
   <si>
@@ -361,9 +346,6 @@
     <t>1844 (T1)</t>
   </si>
   <si>
-    <t>Clemens Brentanos Frühlingskranz</t>
-  </si>
-  <si>
     <t>DEU023</t>
   </si>
   <si>
@@ -376,18 +358,12 @@
     <t>1858–1861 (T1)</t>
   </si>
   <si>
-    <t>Der Zauberer von Rom</t>
-  </si>
-  <si>
     <t>Gutzkow, Karl (1811-1878)</t>
   </si>
   <si>
     <t>DEU025</t>
   </si>
   <si>
-    <t>Der Amerika-Müde</t>
-  </si>
-  <si>
     <t>Kürnberger, Ferdinand (1823-1879)</t>
   </si>
   <si>
@@ -418,9 +394,6 @@
     <t>(T2)</t>
   </si>
   <si>
-    <t>Die letzte Reckenburgerin</t>
-  </si>
-  <si>
     <t>François, Louise von (1817-1893)</t>
   </si>
   <si>
@@ -430,9 +403,6 @@
     <t>Juli/August 1879 (T2)</t>
   </si>
   <si>
-    <t>Alte Nester</t>
-  </si>
-  <si>
     <t>Raabe, Wilhelm (1831-1910)</t>
   </si>
   <si>
@@ -442,18 +412,12 @@
     <t>Oktober 1969 – März 1870 (T2)</t>
   </si>
   <si>
-    <t>Der Schüdderump</t>
-  </si>
-  <si>
     <t>DEU032</t>
   </si>
   <si>
     <t>1874 (T2)</t>
   </si>
   <si>
-    <t>Jürg Jenatsch</t>
-  </si>
-  <si>
     <t>Meyer, Conrad Ferdinand (1825-1898)</t>
   </si>
   <si>
@@ -475,9 +439,6 @@
     <t>Januar- September 1878 (T2)</t>
   </si>
   <si>
-    <t>Vor dem Sturm</t>
-  </si>
-  <si>
     <t>Fontane, Theodor (1819-1898)</t>
   </si>
   <si>
@@ -487,9 +448,6 @@
     <t>1879/80 (T2)</t>
   </si>
   <si>
-    <t>Der grüne Heinrich2 [Zweite Fassung]</t>
-  </si>
-  <si>
     <t>Keller, Gottfried (1819-1890)</t>
   </si>
   <si>
@@ -511,18 +469,12 @@
     <t>Nov. 1863 – März 1864 (T2)</t>
   </si>
   <si>
-    <t>Der Hungerpastor</t>
-  </si>
-  <si>
     <t>DEU039</t>
   </si>
   <si>
     <t>1861 (T2)</t>
   </si>
   <si>
-    <t>Problematische Naturen. Erste Abtheilung</t>
-  </si>
-  <si>
     <t>Spielhagen, Friedrich (1823-1911)</t>
   </si>
   <si>
@@ -550,9 +502,6 @@
     <t>1865 (T2)</t>
   </si>
   <si>
-    <t>Die Mandanenwaise</t>
-  </si>
-  <si>
     <t>Möllhausen, Balduin (1825-1905)</t>
   </si>
   <si>
@@ -568,9 +517,6 @@
     <t>DEU044</t>
   </si>
   <si>
-    <t>Kampf um Rom</t>
-  </si>
-  <si>
     <t>Dahn, Felix (1834-1912)</t>
   </si>
   <si>
@@ -589,9 +535,6 @@
     <t>1879 (T2)</t>
   </si>
   <si>
-    <t>Grete Minde</t>
-  </si>
-  <si>
     <t>DEU047</t>
   </si>
   <si>
@@ -607,16 +550,10 @@
     <t>1872–1880 (T2)</t>
   </si>
   <si>
-    <t>Die Ahnen</t>
-  </si>
-  <si>
     <t>Freytag, Gustav (1816-1895)</t>
   </si>
   <si>
     <t>DEU049</t>
-  </si>
-  <si>
-    <t>Die Leute aus dem Walde, ihre Sterne, Wege und Schicksale</t>
   </si>
   <si>
     <t>DEU050</t>
@@ -1494,6 +1431,340 @@
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
       <t>Erzählung aus der Zeit des Regiments Gensdarmes</t>
+    </r>
+  </si>
+  <si>
+    <t>part of serial work!</t>
+  </si>
+  <si>
+    <t>leiden, volkes</t>
+  </si>
+  <si>
+    <t>amerikanischen</t>
+  </si>
+  <si>
+    <t>roman</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der Sonnenwirt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Eine schwäbische Volksgeschichte</t>
+    </r>
+  </si>
+  <si>
+    <t>schwäbische</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nürnberg. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Culturhistorischer Roman aus dem 15. Jahrhundert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Zweiter Band</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">Der Pedalar. Roman aus dem amerikanischen Leben. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Das Vermächtnis des Pedlars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Die Regulatoren in Arkansas. Aus dem Waldleben Amerikas. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Erste Abteilung</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sibylle. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Eine Selbstbiographie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clemens Brentanos Frühlingskranz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve"> aus Jugendbriefen ihm geflochten,
+wie er selbst schriftlich verlangte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Der Zauberer von Rom. Der Zauberer von Rom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>. Roman in neun Büchern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der Amerika-Müde. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Amerikanisches Kulturbild</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Die letzte Reckenburgerin. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Roman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alte Nester. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Zwei Bücher Lebensgeschichten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der Schüdderump. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Roman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jürg Jenatsch. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Eine Bündnergeschichte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vor dem Sturm. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Roman aus dem Winter 1812 auf 13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der grüne Heinrich2 [Zweite Fassung] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Der grüne Heinrich. Zweite Fassung</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der Hungerpastor. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">Ein Roman in 3 Bänden. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Problematische Naturen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Roman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Erste Abtheilung</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Die Mandanenwaise.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve"> Erzählung aus den Rheinlanden und dem Stromgebiet des Missouri</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Ein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kampf um Rom. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Historischer Roman.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Grete Minde. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Nach einer altmärkischen Chronik</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Die Ahnen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Roman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Die Leute aus dem Walde, ihre Sterne, Wege und Schicksale. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Ein Roman von Wilhelm Raabe</t>
     </r>
   </si>
 </sst>
@@ -1617,7 +1888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1700,6 +1971,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1985,8 +2259,8 @@
   <dimension ref="A1:AQ322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2144,7 +2418,7 @@
       <c r="E2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -2169,40 +2443,40 @@
         <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>25</v>
@@ -2217,10 +2491,10 @@
         <v>25</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>25</v>
+        <v>348</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>25</v>
+        <v>349</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>25</v>
@@ -2229,19 +2503,19 @@
         <v>25</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>25</v>
+        <v>361</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>25</v>
+        <v>349</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>25</v>
+        <v>405</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>25</v>
+        <v>415</v>
       </c>
       <c r="AM2" s="19"/>
       <c r="AN2" s="19"/>
@@ -2264,104 +2538,104 @@
       <c r="E3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK3" s="19" t="s">
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="AO3" s="24"/>
       <c r="AP3" s="24"/>
@@ -2382,104 +2656,107 @@
       <c r="E4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD4" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK4" s="19" t="s">
+      <c r="J4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>420</v>
+        <v>399</v>
+      </c>
+      <c r="AM4" s="25" t="s">
+        <v>454</v>
       </c>
       <c r="AO4" s="24"/>
       <c r="AP4" s="24"/>
@@ -2500,23 +2777,23 @@
       <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>25</v>
@@ -2543,22 +2820,22 @@
         <v>25</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>25</v>
@@ -2567,10 +2844,10 @@
         <v>25</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>25</v>
@@ -2585,10 +2862,10 @@
         <v>25</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AJ5" s="3" t="s">
         <v>25</v>
@@ -2597,14 +2874,14 @@
         <v>25</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="AO5" s="24"/>
       <c r="AP5" s="24"/>
     </row>
     <row r="6" spans="1:43" s="25" customFormat="1" ht="64">
       <c r="A6" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="10">
         <v>765</v>
@@ -2616,25 +2893,25 @@
         <v>40</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>25</v>
+        <v>460</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>25</v>
@@ -2643,25 +2920,25 @@
         <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>423</v>
+        <v>346</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>25</v>
@@ -2691,10 +2968,10 @@
         <v>25</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>25</v>
@@ -2715,14 +2992,14 @@
         <v>25</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="AO6" s="24"/>
       <c r="AP6" s="24"/>
     </row>
-    <row r="7" spans="1:43" s="25" customFormat="1" ht="64">
+    <row r="7" spans="1:43" ht="64">
       <c r="A7" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10">
         <v>200</v>
@@ -2734,113 +3011,111 @@
         <v>47</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="H7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="64">
+      <c r="A8" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="W7" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH7" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="AI7" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="AJ7" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="AK7" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="AL7" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-    </row>
-    <row r="8" spans="1:43" s="25" customFormat="1" ht="64">
-      <c r="A8" s="28" t="s">
-        <v>67</v>
       </c>
       <c r="B8" s="10">
         <v>232</v>
@@ -2852,113 +3127,111 @@
         <v>47</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="W8" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD8" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="AJ8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK8" s="19" t="s">
+      <c r="I8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
+        <v>410</v>
+      </c>
     </row>
     <row r="9" spans="1:43" s="25" customFormat="1" ht="64">
       <c r="A9" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10">
         <v>135</v>
@@ -2967,13 +3240,13 @@
         <v>31603</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>50</v>
@@ -2997,22 +3270,22 @@
         <v>25</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="Q9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T9" s="19" t="s">
         <v>25</v>
@@ -3045,10 +3318,10 @@
         <v>25</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF9" s="19" t="s">
         <v>25</v>
@@ -3069,14 +3342,14 @@
         <v>25</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="AO9" s="24"/>
       <c r="AP9" s="24"/>
     </row>
     <row r="10" spans="1:43" s="25" customFormat="1" ht="64">
       <c r="A10" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="10">
         <v>278</v>
@@ -3090,8 +3363,8 @@
       <c r="E10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>75</v>
+      <c r="F10" s="31" t="s">
+        <v>462</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>53</v>
@@ -3115,34 +3388,34 @@
         <v>25</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>25</v>
@@ -3163,10 +3436,10 @@
         <v>25</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="AF10" s="19" t="s">
         <v>25</v>
@@ -3175,10 +3448,10 @@
         <v>25</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AJ10" s="19" t="s">
         <v>25</v>
@@ -3187,14 +3460,17 @@
         <v>25</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>420</v>
+        <v>399</v>
+      </c>
+      <c r="AM10" s="25" t="s">
+        <v>454</v>
       </c>
       <c r="AO10" s="24"/>
       <c r="AP10" s="24"/>
     </row>
     <row r="11" spans="1:43" ht="64">
       <c r="A11" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="10">
         <v>288</v>
@@ -3206,16 +3482,16 @@
         <v>47</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>45</v>
@@ -3233,13 +3509,13 @@
         <v>25</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>25</v>
@@ -3248,7 +3524,7 @@
         <v>25</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>25</v>
@@ -3281,10 +3557,10 @@
         <v>25</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF11" s="2" t="s">
         <v>25</v>
@@ -3305,12 +3581,12 @@
         <v>25</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="64">
       <c r="A12" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10">
         <v>157</v>
@@ -3319,22 +3595,22 @@
         <v>27975</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>25</v>
@@ -3349,31 +3625,31 @@
         <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>25</v>
@@ -3397,10 +3673,10 @@
         <v>25</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>25</v>
@@ -3409,10 +3685,10 @@
         <v>25</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>25</v>
@@ -3421,12 +3697,12 @@
         <v>25</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="64">
       <c r="A13" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="10">
         <v>272</v>
@@ -3438,10 +3714,10 @@
         <v>47</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>50</v>
@@ -3465,13 +3741,13 @@
         <v>25</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>25</v>
@@ -3480,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>25</v>
@@ -3513,10 +3789,10 @@
         <v>25</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>25</v>
@@ -3537,12 +3813,12 @@
         <v>25</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="64">
       <c r="A14" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="10">
         <v>273</v>
@@ -3554,19 +3830,19 @@
         <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>25</v>
@@ -3581,13 +3857,13 @@
         <v>25</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>25</v>
@@ -3596,7 +3872,7 @@
         <v>25</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>25</v>
@@ -3629,10 +3905,10 @@
         <v>25</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF14" s="2" t="s">
         <v>25</v>
@@ -3653,12 +3929,12 @@
         <v>25</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="64">
       <c r="A15" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="10">
         <v>321</v>
@@ -3670,19 +3946,19 @@
         <v>40</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>25</v>
@@ -3697,22 +3973,22 @@
         <v>25</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>25</v>
@@ -3745,10 +4021,10 @@
         <v>25</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>25</v>
@@ -3769,12 +4045,12 @@
         <v>25</v>
       </c>
       <c r="AL15" s="3" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="80">
       <c r="A16" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="10">
         <v>505</v>
@@ -3786,13 +4062,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>95</v>
+        <v>463</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>44</v>
@@ -3801,10 +4077,10 @@
         <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>25</v>
@@ -3813,56 +4089,56 @@
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="V16" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="W16" s="15" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="3" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="AC16" s="15" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF16" s="3" t="s">
         <v>25</v>
@@ -3871,10 +4147,10 @@
         <v>25</v>
       </c>
       <c r="AH16" s="15" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AJ16" s="3" t="s">
         <v>25</v>
@@ -3883,27 +4159,27 @@
         <v>25</v>
       </c>
       <c r="AL16" s="3" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="AM16" s="17" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="AN16" s="17" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="AO16" s="17" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="AP16" s="17" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AQ16" s="17" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="64">
       <c r="A17" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B17" s="10">
         <v>120</v>
@@ -3912,34 +4188,34 @@
         <v>41879</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>25</v>
@@ -3984,10 +4260,10 @@
         <v>25</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AD17" s="3" t="s">
         <v>25</v>
@@ -4014,12 +4290,12 @@
         <v>25</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="80">
       <c r="A18" s="28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B18" s="10">
         <v>705</v>
@@ -4034,13 +4310,13 @@
         <v>41</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>45</v>
@@ -4058,13 +4334,13 @@
         <v>25</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>25</v>
@@ -4073,7 +4349,7 @@
         <v>25</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>25</v>
@@ -4132,7 +4408,7 @@
     </row>
     <row r="19" spans="1:42" ht="64">
       <c r="A19" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="10">
         <v>172</v>
@@ -4144,19 +4420,19 @@
         <v>47</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>25</v>
@@ -4171,22 +4447,22 @@
         <v>25</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>25</v>
@@ -4245,7 +4521,7 @@
     </row>
     <row r="20" spans="1:42" ht="80">
       <c r="A20" s="28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B20" s="10">
         <v>608</v>
@@ -4257,16 +4533,16 @@
         <v>40</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>106</v>
+        <v>464</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>45</v>
@@ -4284,13 +4560,13 @@
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>25</v>
@@ -4299,7 +4575,7 @@
         <v>25</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>25</v>
@@ -4358,7 +4634,7 @@
     </row>
     <row r="21" spans="1:42" ht="64">
       <c r="A21" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B21" s="10">
         <v>330</v>
@@ -4370,16 +4646,16 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>45</v>
@@ -4397,13 +4673,13 @@
         <v>25</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>25</v>
@@ -4412,7 +4688,7 @@
         <v>25</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>25</v>
@@ -4469,9 +4745,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="64">
+    <row r="22" spans="1:42" ht="96">
       <c r="A22" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B22" s="10">
         <v>202</v>
@@ -4483,19 +4759,19 @@
         <v>40</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>113</v>
+        <v>465</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>25</v>
@@ -4510,7 +4786,7 @@
         <v>25</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>25</v>
@@ -4528,7 +4804,7 @@
         <v>25</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>25</v>
@@ -4584,7 +4860,7 @@
     </row>
     <row r="23" spans="1:42" ht="64">
       <c r="A23" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B23" s="10">
         <v>132</v>
@@ -4593,22 +4869,22 @@
         <v>43934</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>25</v>
@@ -4641,16 +4917,16 @@
         <v>25</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>25</v>
@@ -4697,7 +4973,7 @@
     </row>
     <row r="24" spans="1:42" ht="64">
       <c r="A24" s="28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B24" s="10">
         <v>3477</v>
@@ -4709,13 +4985,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>118</v>
+        <v>466</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>44</v>
@@ -4724,10 +5000,10 @@
         <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>25</v>
@@ -4736,22 +5012,22 @@
         <v>25</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>25</v>
@@ -4778,16 +5054,16 @@
         <v>25</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="AC24" s="19" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF24" s="3" t="s">
         <v>25</v>
@@ -4808,12 +5084,12 @@
         <v>25</v>
       </c>
       <c r="AL24" s="3" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="80">
       <c r="A25" s="28" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B25" s="10">
         <v>503</v>
@@ -4828,10 +5104,10 @@
         <v>48</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>121</v>
+        <v>467</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>44</v>
@@ -4840,99 +5116,99 @@
         <v>45</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC25" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB25" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="AD25" s="15" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="AE25" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL25" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="AF25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL25" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="AM25" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="80">
       <c r="A26" s="28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B26" s="10">
         <v>424</v>
@@ -4944,19 +5220,19 @@
         <v>47</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>25</v>
@@ -4971,38 +5247,38 @@
         <v>25</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>25</v>
@@ -5017,10 +5293,10 @@
         <v>25</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF26" s="3" t="s">
         <v>25</v>
@@ -5029,25 +5305,25 @@
         <v>25</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AI26" s="3" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="AJ26" s="20" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AK26" s="3" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="AL26" s="3" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="AM26" s="3"/>
     </row>
     <row r="27" spans="1:42" ht="80">
       <c r="A27" s="28" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B27" s="10">
         <v>178</v>
@@ -5059,19 +5335,19 @@
         <v>47</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>25</v>
@@ -5086,13 +5362,13 @@
         <v>25</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>25</v>
@@ -5101,7 +5377,7 @@
         <v>25</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>25</v>
@@ -5158,12 +5434,12 @@
         <v>25</v>
       </c>
       <c r="AL27" s="3" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="64">
       <c r="A28" s="28" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B28" s="10">
         <v>382</v>
@@ -5175,19 +5451,19 @@
         <v>40</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>132</v>
+        <v>468</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>25</v>
@@ -5202,13 +5478,13 @@
         <v>25</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>25</v>
@@ -5276,7 +5552,7 @@
     </row>
     <row r="29" spans="1:42" s="25" customFormat="1" ht="64">
       <c r="A29" s="28" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B29" s="10">
         <v>253</v>
@@ -5288,13 +5564,13 @@
         <v>47</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>136</v>
+        <v>469</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>44</v>
@@ -5333,16 +5609,16 @@
         <v>25</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U29" s="19" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="V29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="W29" s="19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>25</v>
@@ -5375,10 +5651,10 @@
         <v>25</v>
       </c>
       <c r="AH29" s="19" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AI29" s="19" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AJ29" s="19" t="s">
         <v>25</v>
@@ -5387,14 +5663,14 @@
         <v>25</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="AO29" s="24"/>
       <c r="AP29" s="24"/>
     </row>
     <row r="30" spans="1:42" s="25" customFormat="1" ht="64">
       <c r="A30" s="28" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B30" s="10">
         <v>362</v>
@@ -5406,19 +5682,19 @@
         <v>40</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>25</v>
@@ -5451,13 +5727,13 @@
         <v>25</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="W30" s="19" t="s">
         <v>25</v>
@@ -5493,10 +5769,10 @@
         <v>25</v>
       </c>
       <c r="AH30" s="19" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AI30" s="19" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AJ30" s="19" t="s">
         <v>25</v>
@@ -5505,14 +5781,14 @@
         <v>25</v>
       </c>
       <c r="AL30" s="3" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="AO30" s="24"/>
       <c r="AP30" s="24"/>
     </row>
     <row r="31" spans="1:42" s="25" customFormat="1" ht="80">
       <c r="A31" s="28" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B31" s="10">
         <v>211</v>
@@ -5524,19 +5800,19 @@
         <v>47</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>143</v>
+        <v>471</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>44</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>25</v>
@@ -5551,13 +5827,13 @@
         <v>25</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="Q31" s="19" t="s">
         <v>25</v>
@@ -5566,7 +5842,7 @@
         <v>25</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T31" s="19" t="s">
         <v>25</v>
@@ -5599,10 +5875,10 @@
         <v>25</v>
       </c>
       <c r="AD31" s="19" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE31" s="19" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF31" s="19" t="s">
         <v>25</v>
@@ -5623,14 +5899,14 @@
         <v>25</v>
       </c>
       <c r="AL31" s="3" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="AO31" s="24"/>
       <c r="AP31" s="24"/>
     </row>
     <row r="32" spans="1:42" s="25" customFormat="1" ht="64">
       <c r="A32" s="28" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B32" s="10">
         <v>129</v>
@@ -5639,19 +5915,19 @@
         <v>37948</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>45</v>
@@ -5669,13 +5945,13 @@
         <v>25</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O32" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>25</v>
@@ -5687,16 +5963,16 @@
         <v>25</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U32" s="19" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="W32" s="19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="X32" s="19" t="s">
         <v>25</v>
@@ -5717,10 +5993,10 @@
         <v>25</v>
       </c>
       <c r="AD32" s="19" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="AE32" s="19" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="AF32" s="19" t="s">
         <v>25</v>
@@ -5729,10 +6005,10 @@
         <v>25</v>
       </c>
       <c r="AH32" s="26" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AI32" s="26" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AJ32" s="19" t="s">
         <v>25</v>
@@ -5741,10 +6017,10 @@
         <v>25</v>
       </c>
       <c r="AL32" s="3" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="AM32" s="26" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="AN32" s="26"/>
       <c r="AO32" s="26"/>
@@ -5752,7 +6028,7 @@
     </row>
     <row r="33" spans="1:42" ht="80">
       <c r="A33" s="28" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B33" s="10">
         <v>397</v>
@@ -5764,19 +6040,19 @@
         <v>47</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>25</v>
@@ -5791,40 +6067,40 @@
         <v>25</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>25</v>
@@ -5839,10 +6115,10 @@
         <v>25</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF33" s="2" t="s">
         <v>25</v>
@@ -5851,27 +6127,27 @@
         <v>25</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="AJ33" s="21" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="AM33" s="3" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="64">
       <c r="A34" s="28" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B34" s="10">
         <v>744</v>
@@ -5883,19 +6159,19 @@
         <v>40</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>151</v>
+        <v>472</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>25</v>
@@ -5928,7 +6204,7 @@
         <v>25</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>25</v>
@@ -5987,7 +6263,7 @@
     </row>
     <row r="35" spans="1:42" ht="64">
       <c r="A35" s="28" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B35" s="10">
         <v>838</v>
@@ -5999,13 +6275,13 @@
         <v>40</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>155</v>
+        <v>473</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>44</v>
@@ -6026,22 +6302,22 @@
         <v>25</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>25</v>
@@ -6103,7 +6379,7 @@
     </row>
     <row r="36" spans="1:42" ht="64">
       <c r="A36" s="28" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B36" s="10">
         <v>412</v>
@@ -6115,16 +6391,16 @@
         <v>40</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>45</v>
@@ -6142,22 +6418,22 @@
         <v>25</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>25</v>
@@ -6219,7 +6495,7 @@
     </row>
     <row r="37" spans="1:42" ht="64">
       <c r="A37" s="28" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B37" s="10">
         <v>447</v>
@@ -6231,19 +6507,19 @@
         <v>40</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>163</v>
+        <v>474</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>25</v>
@@ -6258,22 +6534,22 @@
         <v>25</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>25</v>
@@ -6335,7 +6611,7 @@
     </row>
     <row r="38" spans="1:42" ht="80">
       <c r="A38" s="28" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B38" s="10">
         <v>622</v>
@@ -6347,13 +6623,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>166</v>
+        <v>475</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>44</v>
@@ -6451,7 +6727,7 @@
     </row>
     <row r="39" spans="1:42" ht="64">
       <c r="A39" s="28" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B39" s="10">
         <v>331</v>
@@ -6463,19 +6739,19 @@
         <v>40</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>25</v>
@@ -6490,13 +6766,13 @@
         <v>25</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>25</v>
@@ -6505,7 +6781,7 @@
         <v>25</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>25</v>
@@ -6567,7 +6843,7 @@
     </row>
     <row r="40" spans="1:42" ht="64">
       <c r="A40" s="28" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B40" s="10">
         <v>297</v>
@@ -6579,16 +6855,16 @@
         <v>40</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>45</v>
@@ -6606,13 +6882,13 @@
         <v>25</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>25</v>
@@ -6621,13 +6897,13 @@
         <v>25</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>25</v>
@@ -6683,7 +6959,7 @@
     </row>
     <row r="41" spans="1:42" ht="80">
       <c r="A41" s="28" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B41" s="10">
         <v>436</v>
@@ -6695,13 +6971,13 @@
         <v>40</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>44</v>
@@ -6720,10 +6996,10 @@
         <v>25</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>25</v>
@@ -6797,7 +7073,7 @@
     </row>
     <row r="42" spans="1:42" ht="80">
       <c r="A42" s="28" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B42" s="10">
         <v>772</v>
@@ -6809,13 +7085,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>44</v>
@@ -6854,10 +7130,10 @@
         <v>25</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>25</v>
@@ -6913,7 +7189,7 @@
     </row>
     <row r="43" spans="1:42" s="25" customFormat="1" ht="64">
       <c r="A43" s="28" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B43" s="10">
         <v>774</v>
@@ -6925,25 +7201,25 @@
         <v>40</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>182</v>
+        <v>477</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>44</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="L43" s="19" t="s">
         <v>25</v>
@@ -6970,10 +7246,10 @@
         <v>25</v>
       </c>
       <c r="T43" s="19" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U43" s="19" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="V43" s="19" t="s">
         <v>25</v>
@@ -6994,10 +7270,10 @@
         <v>25</v>
       </c>
       <c r="AB43" s="19" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="AC43" s="19" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AD43" s="19" t="s">
         <v>25</v>
@@ -7012,10 +7288,10 @@
         <v>25</v>
       </c>
       <c r="AH43" s="19" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AI43" s="19" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AJ43" s="19" t="s">
         <v>25</v>
@@ -7024,14 +7300,14 @@
         <v>25</v>
       </c>
       <c r="AL43" s="3" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="AO43" s="24"/>
       <c r="AP43" s="24"/>
     </row>
     <row r="44" spans="1:42" ht="64">
       <c r="A44" s="28" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B44" s="10">
         <v>980</v>
@@ -7043,19 +7319,19 @@
         <v>40</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>25</v>
@@ -7147,7 +7423,7 @@
     </row>
     <row r="45" spans="1:42" ht="64">
       <c r="A45" s="28" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B45" s="10">
         <v>101</v>
@@ -7156,22 +7432,22 @@
         <v>39821</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>189</v>
+        <v>478</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>25</v>
@@ -7186,13 +7462,13 @@
         <v>25</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>25</v>
@@ -7201,7 +7477,7 @@
         <v>25</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>25</v>
@@ -7263,7 +7539,7 @@
     </row>
     <row r="46" spans="1:42" ht="64">
       <c r="A46" s="28" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B46" s="10">
         <v>178</v>
@@ -7275,16 +7551,16 @@
         <v>47</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>45</v>
@@ -7302,19 +7578,19 @@
         <v>25</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>25</v>
@@ -7379,7 +7655,7 @@
     </row>
     <row r="47" spans="1:42" ht="64">
       <c r="A47" s="28" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B47" s="10">
         <v>1374</v>
@@ -7391,19 +7667,19 @@
         <v>40</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>195</v>
+        <v>479</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>25</v>
@@ -7418,19 +7694,19 @@
         <v>25</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>25</v>
@@ -7495,7 +7771,7 @@
     </row>
     <row r="48" spans="1:42" ht="64">
       <c r="A48" s="28" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B48" s="10">
         <v>406</v>
@@ -7507,13 +7783,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>44</v>
@@ -7534,40 +7810,40 @@
         <v>25</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="W48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="Z48" s="2" t="s">
         <v>25</v>
@@ -7582,10 +7858,10 @@
         <v>25</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AE48" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AF48" s="3" t="s">
         <v>25</v>
@@ -7594,24 +7870,24 @@
         <v>25</v>
       </c>
       <c r="AH48" s="3" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="AI48" s="3" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AJ48" s="3" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AL48" s="3" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="64">
       <c r="A49" s="28" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B49" s="10">
         <v>366</v>
@@ -7623,40 +7899,40 @@
         <v>40</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O49" s="15" t="s">
         <v>25</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>25</v>
@@ -7665,13 +7941,13 @@
         <v>25</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>25</v>
@@ -7724,7 +8000,7 @@
     </row>
     <row r="50" spans="1:39" ht="64">
       <c r="A50" s="28" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B50" s="10">
         <v>108</v>
@@ -7733,22 +8009,22 @@
         <v>40316</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>25</v>
@@ -7837,7 +8113,7 @@
     </row>
     <row r="51" spans="1:39" ht="64">
       <c r="A51" s="28" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B51" s="10">
         <v>245</v>
@@ -7849,19 +8125,19 @@
         <v>47</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>25</v>
@@ -7876,13 +8152,13 @@
         <v>25</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>25</v>
@@ -7950,7 +8226,7 @@
     </row>
     <row r="52" spans="1:39" ht="64">
       <c r="A52" s="28" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B52" s="10">
         <v>193</v>
@@ -7962,19 +8238,19 @@
         <v>47</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>25</v>
@@ -7989,13 +8265,13 @@
         <v>25</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>25</v>
@@ -8063,7 +8339,7 @@
     </row>
     <row r="53" spans="1:39" ht="48">
       <c r="A53" s="28" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B53" s="10">
         <v>595</v>
@@ -8075,19 +8351,19 @@
         <v>40</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>25</v>
@@ -8176,7 +8452,7 @@
     </row>
     <row r="54" spans="1:39" ht="64">
       <c r="A54" s="28" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B54" s="10">
         <v>247</v>
@@ -8188,13 +8464,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>44</v>
@@ -8289,7 +8565,7 @@
     </row>
     <row r="55" spans="1:39" ht="64">
       <c r="A55" s="28" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B55" s="10">
         <v>464</v>
@@ -8301,19 +8577,19 @@
         <v>40</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>25</v>
@@ -8402,7 +8678,7 @@
     </row>
     <row r="56" spans="1:39" ht="64">
       <c r="A56" s="28" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B56" s="10">
         <v>374</v>
@@ -8414,16 +8690,16 @@
         <v>47</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>45</v>
@@ -8515,7 +8791,7 @@
     </row>
     <row r="57" spans="1:39" ht="80">
       <c r="A57" s="28" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B57" s="10">
         <v>96</v>
@@ -8524,22 +8800,22 @@
         <v>41591</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>25</v>
@@ -8628,7 +8904,7 @@
     </row>
     <row r="58" spans="1:39" ht="64">
       <c r="A58" s="28" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B58" s="10">
         <v>165</v>
@@ -8640,19 +8916,19 @@
         <v>47</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>25</v>
@@ -8741,7 +9017,7 @@
     </row>
     <row r="59" spans="1:39" ht="64">
       <c r="A59" s="28" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B59" s="10">
         <v>101</v>
@@ -8750,19 +9026,19 @@
         <v>21931</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>45</v>
@@ -8854,7 +9130,7 @@
     </row>
     <row r="60" spans="1:39" ht="64">
       <c r="A60" s="28" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B60" s="10">
         <v>1140</v>
@@ -8866,13 +9142,13 @@
         <v>40</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>44</v>
@@ -8965,12 +9241,12 @@
         <v>25</v>
       </c>
       <c r="AM60" s="1" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:39" ht="64">
       <c r="A61" s="28" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B61" s="10">
         <v>477</v>
@@ -8982,19 +9258,19 @@
         <v>40</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>25</v>
@@ -9083,7 +9359,7 @@
     </row>
     <row r="62" spans="1:39" ht="64">
       <c r="A62" s="28" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B62" s="10">
         <v>139</v>
@@ -9092,19 +9368,19 @@
         <v>38398</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>45</v>
@@ -9196,7 +9472,7 @@
     </row>
     <row r="63" spans="1:39" ht="48">
       <c r="A63" s="28" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B63" s="10">
         <v>134</v>
@@ -9205,19 +9481,19 @@
         <v>47731</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>45</v>
@@ -9309,7 +9585,7 @@
     </row>
     <row r="64" spans="1:39" ht="80">
       <c r="A64" s="28" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B64" s="10">
         <v>266</v>
@@ -9321,13 +9597,13 @@
         <v>47</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>44</v>
@@ -9422,7 +9698,7 @@
     </row>
     <row r="65" spans="1:39" ht="64">
       <c r="A65" s="28" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B65" s="10">
         <v>407</v>
@@ -9434,22 +9710,22 @@
         <v>40</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>25</v>
@@ -9535,7 +9811,7 @@
     </row>
     <row r="66" spans="1:39" ht="64">
       <c r="A66" s="28" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B66" s="10">
         <v>455</v>
@@ -9547,19 +9823,19 @@
         <v>40</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>25</v>
@@ -9648,7 +9924,7 @@
     </row>
     <row r="67" spans="1:39" ht="64">
       <c r="A67" s="28" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B67" s="10">
         <v>156</v>
@@ -9660,13 +9936,13 @@
         <v>47</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>44</v>
@@ -9761,7 +10037,7 @@
     </row>
     <row r="68" spans="1:39" ht="64">
       <c r="A68" s="28" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B68" s="10">
         <v>327</v>
@@ -9773,13 +10049,13 @@
         <v>47</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>44</v>
@@ -9874,7 +10150,7 @@
     </row>
     <row r="69" spans="1:39" ht="80">
       <c r="A69" s="28" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B69" s="10">
         <v>137</v>
@@ -9886,25 +10162,25 @@
         <v>47</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>25</v>
@@ -9913,22 +10189,22 @@
         <v>25</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="R69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>25</v>
@@ -9941,12 +10217,12 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AM69" s="18" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:39" ht="64">
       <c r="A70" s="28" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B70" s="10">
         <v>186</v>
@@ -9958,19 +10234,19 @@
         <v>47</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>25</v>
@@ -10059,7 +10335,7 @@
     </row>
     <row r="71" spans="1:39" ht="64">
       <c r="A71" s="28" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B71" s="10">
         <v>169</v>
@@ -10071,19 +10347,19 @@
         <v>47</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>25</v>
@@ -10172,7 +10448,7 @@
     </row>
     <row r="72" spans="1:39" ht="64">
       <c r="A72" s="28" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B72" s="10">
         <v>419</v>
@@ -10184,16 +10460,16 @@
         <v>40</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>45</v>
@@ -10285,7 +10561,7 @@
     </row>
     <row r="73" spans="1:39" ht="48">
       <c r="A73" s="28" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B73" s="10">
         <v>355</v>
@@ -10297,16 +10573,16 @@
         <v>47</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>45</v>
@@ -10398,7 +10674,7 @@
     </row>
     <row r="74" spans="1:39" ht="64">
       <c r="A74" s="28" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B74" s="10">
         <v>249</v>
@@ -10410,16 +10686,16 @@
         <v>47</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>45</v>
@@ -10511,7 +10787,7 @@
     </row>
     <row r="75" spans="1:39" ht="64">
       <c r="A75" s="28" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B75" s="10">
         <v>450</v>
@@ -10523,19 +10799,19 @@
         <v>40</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>25</v>
@@ -10624,7 +10900,7 @@
     </row>
     <row r="76" spans="1:39" ht="96">
       <c r="A76" s="28" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B76" s="10">
         <v>221</v>
@@ -10636,19 +10912,19 @@
         <v>47</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>25</v>
@@ -10737,7 +11013,7 @@
     </row>
     <row r="77" spans="1:39" ht="64">
       <c r="A77" s="28" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B77" s="10">
         <v>365</v>
@@ -10749,13 +11025,13 @@
         <v>40</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>44</v>
@@ -10850,7 +11126,7 @@
     </row>
     <row r="78" spans="1:39" ht="80">
       <c r="A78" s="28" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B78" s="10">
         <v>238</v>
@@ -10862,19 +11138,19 @@
         <v>47</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>25</v>
@@ -10963,7 +11239,7 @@
     </row>
     <row r="79" spans="1:39" ht="64">
       <c r="A79" s="28" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B79" s="10">
         <v>126</v>
@@ -10972,16 +11248,16 @@
         <v>37961</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>44</v>
@@ -10990,10 +11266,10 @@
         <v>45</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>25</v>
@@ -11044,10 +11320,10 @@
         <v>25</v>
       </c>
       <c r="AB79" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AC79" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AD79" s="3" t="s">
         <v>25</v>
@@ -11074,12 +11350,12 @@
         <v>25</v>
       </c>
       <c r="AL79" s="3" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:39" ht="48">
       <c r="A80" s="28" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B80" s="10">
         <v>661</v>
@@ -11091,25 +11367,25 @@
         <v>40</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -11130,7 +11406,7 @@
     </row>
     <row r="81" spans="1:38" ht="48">
       <c r="A81" s="28" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B81" s="10">
         <v>423</v>
@@ -11142,16 +11418,16 @@
         <v>40</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I81" s="14" t="s">
         <v>45</v>
@@ -11243,7 +11519,7 @@
     </row>
     <row r="82" spans="1:38" ht="64">
       <c r="A82" s="28" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B82" s="10">
         <v>58</v>
@@ -11252,16 +11528,16 @@
         <v>23323</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>44</v>
@@ -11356,7 +11632,7 @@
     </row>
     <row r="83" spans="1:38" ht="48">
       <c r="A83" s="28" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B83" s="10">
         <v>651</v>
@@ -11368,25 +11644,25 @@
         <v>40</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>25</v>
@@ -11437,10 +11713,10 @@
         <v>25</v>
       </c>
       <c r="AB83" s="3" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AC83" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>25</v>
@@ -11467,12 +11743,12 @@
         <v>25</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="64">
       <c r="A84" s="28" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B84" s="10">
         <v>500</v>
@@ -11484,19 +11760,19 @@
         <v>40</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="H84" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>25</v>
@@ -11585,7 +11861,7 @@
     </row>
     <row r="85" spans="1:38" ht="96">
       <c r="A85" s="28" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B85" s="10">
         <v>123</v>
@@ -11594,19 +11870,19 @@
         <v>45345</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I85" s="14" t="s">
         <v>45</v>
@@ -11698,7 +11974,7 @@
     </row>
     <row r="86" spans="1:38" ht="64">
       <c r="A86" s="28" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B86" s="10">
         <v>265</v>
@@ -11710,16 +11986,16 @@
         <v>47</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I86" s="14" t="s">
         <v>45</v>
@@ -11809,7 +12085,7 @@
     </row>
     <row r="87" spans="1:38" ht="64">
       <c r="A87" s="28" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B87" s="10">
         <v>104</v>
@@ -11818,22 +12094,22 @@
         <v>40323</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>25</v>
@@ -11922,7 +12198,7 @@
     </row>
     <row r="88" spans="1:38" ht="64">
       <c r="A88" s="28" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B88" s="10">
         <v>523</v>
@@ -11934,13 +12210,13 @@
         <v>40</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>44</v>
@@ -12033,7 +12309,7 @@
     </row>
     <row r="89" spans="1:38" ht="96">
       <c r="A89" s="28" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B89" s="10">
         <v>88</v>
@@ -12042,22 +12318,22 @@
         <v>25015</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>25</v>
@@ -12146,7 +12422,7 @@
     </row>
     <row r="90" spans="1:38" ht="64">
       <c r="A90" s="28" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B90" s="10">
         <v>93</v>
@@ -12155,22 +12431,22 @@
         <v>43407</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>25</v>
@@ -12259,7 +12535,7 @@
     </row>
     <row r="91" spans="1:38" ht="80">
       <c r="A91" s="28" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B91" s="10">
         <v>136</v>
@@ -12268,16 +12544,16 @@
         <v>48607</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>44</v>
@@ -12372,7 +12648,7 @@
     </row>
     <row r="92" spans="1:38" ht="64">
       <c r="A92" s="28" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B92" s="10">
         <v>132</v>
@@ -12381,22 +12657,22 @@
         <v>42418</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>25</v>
@@ -12485,7 +12761,7 @@
     </row>
     <row r="93" spans="1:38" ht="64">
       <c r="A93" s="28" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B93" s="10">
         <v>324</v>
@@ -12497,19 +12773,19 @@
         <v>40</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>25</v>
@@ -12598,7 +12874,7 @@
     </row>
     <row r="94" spans="1:38" ht="48">
       <c r="A94" s="28" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B94" s="10">
         <v>176</v>
@@ -12610,13 +12886,13 @@
         <v>47</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="H94" s="14" t="s">
         <v>44</v>
@@ -12709,7 +12985,7 @@
     </row>
     <row r="95" spans="1:38" ht="64">
       <c r="A95" s="28" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B95" s="10">
         <v>350</v>
@@ -12721,19 +12997,19 @@
         <v>47</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H95" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>25</v>
@@ -12822,7 +13098,7 @@
     </row>
     <row r="96" spans="1:38" ht="64">
       <c r="A96" s="28" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B96" s="10">
         <v>172</v>
@@ -12834,19 +13110,19 @@
         <v>47</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="H96" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>25</v>
@@ -12935,7 +13211,7 @@
     </row>
     <row r="97" spans="1:37" ht="96">
       <c r="A97" s="28" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B97" s="10">
         <v>146</v>
@@ -12944,22 +13220,22 @@
         <v>41778</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>25</v>
@@ -13048,7 +13324,7 @@
     </row>
     <row r="98" spans="1:37" ht="64">
       <c r="A98" s="28" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B98" s="10">
         <v>255</v>
@@ -13060,19 +13336,19 @@
         <v>47</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>25</v>
@@ -13161,7 +13437,7 @@
     </row>
     <row r="99" spans="1:37" ht="80">
       <c r="A99" s="28" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B99" s="10">
         <v>130</v>
@@ -13173,19 +13449,19 @@
         <v>47</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J99" s="15"/>
       <c r="K99" s="2" t="s">
@@ -19311,7 +19587,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T24:T27 T1:T2 T5 T16:T17 T43 T48 T69 T79:T80 T83 T100:T1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L100:L322 W100:X322 J34:J241 Z100:Z322 J277:J322 Q100:Q322 AA2 U2 N24:N27 Q1:Q2 J1:J32 W24:X27 L24:L27 Z24:Z27 N1:N2 L1:L2 Q24:Q27 W1:X2 Z1:Z2 W5:X5 N5 L5 Q5 Z5 Z16:Z17 W16:X17 N16:N17 L16:L17 Q16:Q17 N43 Q43 Z43 W43:X43 L43 L48 N48 Q48 Z48 W48:X48 W69:X69 L69 N69 Q69 Z69 Z79:Z80 W79:X80 L79:L80 N79:N80 Q79:Q80 Q83 Z83 W83:X83 L83 N83 N100:N322" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L100:L322 W100:X322 J34:J241 Z100:Z322 J277:J322 Q100:Q322 AA2 N100:N322 N24:N27 Q1:Q2 J1:J32 W24:X27 L24:L27 Z24:Z27 N1:N2 L1:L2 Q24:Q27 W1:X2 Z1:Z2 W5:X5 N5 L5 Q5 Z5 Z16:Z17 W16:X17 N16:N17 L16:L17 Q16:Q17 N43 Q43 Z43 W43:X43 L43 L48 N48 Q48 Z48 W48:X48 W69:X69 L69 N69 Q69 Z69 Z79:Z80 W79:X80 L79:L80 N79:N80 Q79:Q80 Q83 Z83 W83:X83 L83 N83" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>

--- a/titlePilotStudy/data/DEU_jbh.xlsx
+++ b/titlePilotStudy/data/DEU_jbh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD3497-3C5E-7946-BBFE-F4BCD8D8EAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA1BF60-9FD5-3D44-B741-91388B170AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="460" windowWidth="28520" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="578">
   <si>
     <t>Identifier</t>
   </si>
@@ -2323,6 +2323,63 @@
   </si>
   <si>
     <t>paralyse</t>
+  </si>
+  <si>
+    <t>lebenssucher</t>
+  </si>
+  <si>
+    <t>friede</t>
+  </si>
+  <si>
+    <t>malte laurids brigge</t>
+  </si>
+  <si>
+    <t>brigge</t>
+  </si>
+  <si>
+    <t>taifun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taifun </t>
+  </si>
+  <si>
+    <t>ellen olestjerne</t>
+  </si>
+  <si>
+    <t>olestjerne</t>
+  </si>
+  <si>
+    <t>caspar hauser</t>
+  </si>
+  <si>
+    <t>trägheit</t>
+  </si>
+  <si>
+    <t>hauser</t>
+  </si>
+  <si>
+    <t>herzens</t>
+  </si>
+  <si>
+    <t>ninive</t>
+  </si>
+  <si>
+    <t>fanny förster</t>
+  </si>
+  <si>
+    <t>schicksale</t>
+  </si>
+  <si>
+    <t>seele</t>
+  </si>
+  <si>
+    <t>eisen</t>
+  </si>
+  <si>
+    <t>cécile</t>
+  </si>
+  <si>
+    <t>förster</t>
   </si>
 </sst>
 </file>
@@ -2466,7 +2523,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2512,6 +2569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2853,9 +2911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL82" sqref="AL82"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL74" sqref="AL74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2872,7 +2930,7 @@
     <col min="23" max="23" width="13.6640625" style="1" customWidth="1"/>
     <col min="24" max="24" width="12.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="8.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="32" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="33" customWidth="1"/>
     <col min="27" max="27" width="11.6640625" style="1" customWidth="1"/>
     <col min="28" max="28" width="8.83203125" style="1"/>
     <col min="29" max="29" width="12.6640625" style="1" customWidth="1"/>
@@ -2887,31 +2945,31 @@
     <col min="41" max="41" width="13.33203125" style="16" customWidth="1"/>
     <col min="42" max="42" width="8.83203125" style="16"/>
     <col min="43" max="49" width="8.83203125" style="1"/>
-    <col min="50" max="50" width="8.83203125" style="32"/>
+    <col min="50" max="50" width="8.83203125" style="33"/>
     <col min="51" max="52" width="8.83203125" style="1"/>
-    <col min="53" max="53" width="8.83203125" style="32"/>
+    <col min="53" max="53" width="8.83203125" style="33"/>
     <col min="54" max="56" width="8.83203125" style="1"/>
     <col min="57" max="57" width="24.1640625" style="1" customWidth="1"/>
     <col min="58" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="10" customFormat="1" ht="51">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="13" t="s">
@@ -2971,7 +3029,7 @@
       <c r="Y1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="31" t="s">
         <v>23</v>
       </c>
       <c r="AA1" s="11" t="s">
@@ -3043,7 +3101,7 @@
       <c r="AW1" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AX1" s="31" t="s">
         <v>456</v>
       </c>
       <c r="AY1" s="11" t="s">
@@ -3052,7 +3110,7 @@
       <c r="AZ1" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="BA1" s="30" t="s">
+      <c r="BA1" s="31" t="s">
         <v>459</v>
       </c>
       <c r="BB1" s="11" t="s">
@@ -3064,12 +3122,12 @@
       <c r="BD1" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BE1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="48">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="10">
@@ -3144,7 +3202,7 @@
       <c r="Y2" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA2" s="3" t="s">
@@ -3185,8 +3243,8 @@
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
-      <c r="AO2" s="28"/>
-      <c r="BA2" s="32" t="s">
+      <c r="AO2" s="29"/>
+      <c r="BA2" s="33" t="s">
         <v>330</v>
       </c>
       <c r="BB2" s="1" t="s">
@@ -3197,7 +3255,7 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="48">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="10">
@@ -3272,7 +3330,7 @@
       <c r="Y3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA3" s="3" t="s">
@@ -3311,7 +3369,7 @@
       <c r="AL3" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="BA3" s="32" t="s">
+      <c r="BA3" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BE3" s="10" t="s">
@@ -3319,7 +3377,7 @@
       </c>
     </row>
     <row r="4" spans="1:57" ht="32">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="10">
@@ -3394,7 +3452,7 @@
       <c r="Y4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA4" s="3" t="s">
@@ -3436,7 +3494,7 @@
       <c r="AM4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="BA4" s="32" t="s">
+      <c r="BA4" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB4" s="1" t="s">
@@ -3447,7 +3505,7 @@
       </c>
     </row>
     <row r="5" spans="1:57" ht="48">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="10">
@@ -3522,7 +3580,7 @@
       <c r="Y5" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="Z5" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA5" s="3" t="s">
@@ -3561,7 +3619,7 @@
       <c r="AL5" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB5" s="1" t="s">
@@ -3572,7 +3630,7 @@
       </c>
     </row>
     <row r="6" spans="1:57" ht="32">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="10">
@@ -3647,7 +3705,7 @@
       <c r="Y6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="31" t="s">
+      <c r="Z6" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA6" s="3" t="s">
@@ -3686,7 +3744,7 @@
       <c r="AL6" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="BA6" s="32" t="s">
+      <c r="BA6" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB6" s="1" t="s">
@@ -3697,7 +3755,7 @@
       </c>
     </row>
     <row r="7" spans="1:57" ht="32">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="10">
@@ -3772,7 +3830,7 @@
       <c r="Y7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="31" t="s">
+      <c r="Z7" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA7" s="3" t="s">
@@ -3811,7 +3869,7 @@
       <c r="AL7" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="BA7" s="32" t="s">
+      <c r="BA7" s="33" t="s">
         <v>329</v>
       </c>
       <c r="BB7" s="1" t="s">
@@ -3822,7 +3880,7 @@
       </c>
     </row>
     <row r="8" spans="1:57" ht="32">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="10">
@@ -3897,7 +3955,7 @@
       <c r="Y8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="31" t="s">
+      <c r="Z8" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA8" s="3" t="s">
@@ -3936,7 +3994,7 @@
       <c r="AL8" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="BA8" s="32" t="s">
+      <c r="BA8" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BE8" s="10" t="s">
@@ -3944,13 +4002,13 @@
       </c>
     </row>
     <row r="9" spans="1:57" ht="48">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="10">
         <v>135</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="37">
         <v>31603</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4019,7 +4077,7 @@
       <c r="Y9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z9" s="35" t="s">
+      <c r="Z9" s="36" t="s">
         <v>25</v>
       </c>
       <c r="AA9" s="3" t="s">
@@ -4058,7 +4116,7 @@
       <c r="AL9" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="BA9" s="34" t="s">
+      <c r="BA9" s="35" t="s">
         <v>25</v>
       </c>
       <c r="BE9" s="10" t="s">
@@ -4066,7 +4124,7 @@
       </c>
     </row>
     <row r="10" spans="1:57" ht="64">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="10">
@@ -4141,7 +4199,7 @@
       <c r="Y10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z10" s="35" t="s">
+      <c r="Z10" s="36" t="s">
         <v>318</v>
       </c>
       <c r="AA10" s="3" t="s">
@@ -4183,7 +4241,7 @@
       <c r="AM10" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="BA10" s="34" t="s">
+      <c r="BA10" s="35" t="s">
         <v>329</v>
       </c>
       <c r="BB10" s="1" t="s">
@@ -4194,7 +4252,7 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="32">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="10">
@@ -4269,7 +4327,7 @@
       <c r="Y11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="Z11" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA11" s="2" t="s">
@@ -4308,7 +4366,7 @@
       <c r="AL11" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="BA11" s="32" t="s">
+      <c r="BA11" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BE11" s="10" t="s">
@@ -4316,7 +4374,7 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="32">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="10">
@@ -4391,7 +4449,7 @@
       <c r="Y12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z12" s="31" t="s">
+      <c r="Z12" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA12" s="3" t="s">
@@ -4430,7 +4488,7 @@
       <c r="AL12" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="BA12" s="32" t="s">
+      <c r="BA12" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BE12" s="10" t="s">
@@ -4438,7 +4496,7 @@
       </c>
     </row>
     <row r="13" spans="1:57" ht="48">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="10">
@@ -4513,7 +4571,7 @@
       <c r="Y13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z13" s="31" t="s">
+      <c r="Z13" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA13" s="2" t="s">
@@ -4557,7 +4615,7 @@
       </c>
     </row>
     <row r="14" spans="1:57" ht="32">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="10">
@@ -4632,7 +4690,7 @@
       <c r="Y14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z14" s="31" t="s">
+      <c r="Z14" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA14" s="2" t="s">
@@ -4676,7 +4734,7 @@
       </c>
     </row>
     <row r="15" spans="1:57" ht="48">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="10">
@@ -4751,7 +4809,7 @@
       <c r="Y15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="31" t="s">
+      <c r="Z15" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA15" s="2" t="s">
@@ -4795,7 +4853,7 @@
       </c>
     </row>
     <row r="16" spans="1:57" ht="48">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="10">
@@ -4870,7 +4928,7 @@
       <c r="Y16" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="36" t="s">
         <v>25</v>
       </c>
       <c r="AA16" s="3" t="s">
@@ -4921,7 +4979,7 @@
       <c r="AQ16" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="BA16" s="34"/>
+      <c r="BA16" s="35"/>
       <c r="BC16" s="1" t="s">
         <v>329</v>
       </c>
@@ -4933,7 +4991,7 @@
       </c>
     </row>
     <row r="17" spans="1:57" ht="32">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="10">
@@ -5008,7 +5066,7 @@
       <c r="Y17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z17" s="31" t="s">
+      <c r="Z17" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA17" s="2" t="s">
@@ -5058,7 +5116,7 @@
       </c>
     </row>
     <row r="18" spans="1:57" ht="48">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="10">
@@ -5133,7 +5191,7 @@
       <c r="Y18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="31" t="s">
+      <c r="Z18" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA18" s="2" t="s">
@@ -5169,7 +5227,7 @@
       <c r="AK18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA18" s="32" t="s">
+      <c r="BA18" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB18" s="1" t="s">
@@ -5180,7 +5238,7 @@
       </c>
     </row>
     <row r="19" spans="1:57" ht="32">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="10">
@@ -5255,7 +5313,7 @@
       <c r="Y19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z19" s="31" t="s">
+      <c r="Z19" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA19" s="2" t="s">
@@ -5296,7 +5354,7 @@
       </c>
     </row>
     <row r="20" spans="1:57" ht="48">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>100</v>
       </c>
       <c r="B20" s="10">
@@ -5371,7 +5429,7 @@
       <c r="Y20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z20" s="31" t="s">
+      <c r="Z20" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA20" s="2" t="s">
@@ -5407,7 +5465,7 @@
       <c r="AK20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA20" s="32" t="s">
+      <c r="BA20" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB20" s="1" t="s">
@@ -5418,7 +5476,7 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="32">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="10">
@@ -5493,7 +5551,7 @@
       <c r="Y21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z21" s="31" t="s">
+      <c r="Z21" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA21" s="2" t="s">
@@ -5534,7 +5592,7 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="96">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="10">
@@ -5609,7 +5667,7 @@
       <c r="Y22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z22" s="31" t="s">
+      <c r="Z22" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA22" s="2" t="s">
@@ -5650,7 +5708,7 @@
       </c>
     </row>
     <row r="23" spans="1:57" ht="32">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>107</v>
       </c>
       <c r="B23" s="10">
@@ -5725,7 +5783,7 @@
       <c r="Y23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z23" s="31" t="s">
+      <c r="Z23" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA23" s="2" t="s">
@@ -5766,7 +5824,7 @@
       </c>
     </row>
     <row r="24" spans="1:57" ht="32">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="10">
@@ -5841,7 +5899,7 @@
       <c r="Y24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z24" s="31" t="s">
+      <c r="Z24" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA24" s="2" t="s">
@@ -5850,7 +5908,7 @@
       <c r="AB24" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AC24" s="17" t="s">
+      <c r="AC24" s="18" t="s">
         <v>327</v>
       </c>
       <c r="AD24" s="15" t="s">
@@ -5880,7 +5938,7 @@
       <c r="AL24" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="BA24" s="32" t="s">
+      <c r="BA24" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB24" s="1" t="s">
@@ -5891,7 +5949,7 @@
       </c>
     </row>
     <row r="25" spans="1:57" ht="48">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>112</v>
       </c>
       <c r="B25" s="10">
@@ -5966,7 +6024,7 @@
       <c r="Y25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z25" s="31" t="s">
+      <c r="Z25" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA25" s="2" t="s">
@@ -6008,7 +6066,7 @@
       <c r="AM25" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BA25" s="32" t="s">
+      <c r="BA25" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB25" s="1" t="s">
@@ -6019,7 +6077,7 @@
       </c>
     </row>
     <row r="26" spans="1:57" ht="64">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="10">
@@ -6092,7 +6150,7 @@
       <c r="Y26" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z26" s="31" t="s">
+      <c r="Z26" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA26" s="2" t="s">
@@ -6122,7 +6180,7 @@
       <c r="AI26" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AJ26" s="18" t="s">
+      <c r="AJ26" s="19" t="s">
         <v>348</v>
       </c>
       <c r="AK26" s="3" t="s">
@@ -6132,7 +6190,7 @@
         <v>346</v>
       </c>
       <c r="AM26" s="3"/>
-      <c r="BA26" s="32" t="s">
+      <c r="BA26" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BB26" s="1" t="s">
@@ -6143,7 +6201,7 @@
       </c>
     </row>
     <row r="27" spans="1:57" ht="64">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="10">
@@ -6218,7 +6276,7 @@
       <c r="Y27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z27" s="31" t="s">
+      <c r="Z27" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA27" s="2" t="s">
@@ -6257,7 +6315,7 @@
       <c r="AL27" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="BA27" s="32" t="s">
+      <c r="BA27" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BB27" s="1" t="s">
@@ -6268,7 +6326,7 @@
       </c>
     </row>
     <row r="28" spans="1:57" ht="48">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="10">
@@ -6343,7 +6401,7 @@
       <c r="Y28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z28" s="31" t="s">
+      <c r="Z28" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA28" s="2" t="s">
@@ -6379,7 +6437,7 @@
       <c r="AK28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA28" s="32" t="s">
+      <c r="BA28" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB28" s="1" t="s">
@@ -6389,8 +6447,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:57" s="22" customFormat="1" ht="48">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:57" s="23" customFormat="1" ht="48">
+      <c r="A29" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="10">
@@ -6408,117 +6466,117 @@
       <c r="F29" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="T29" s="17" t="s">
+      <c r="J29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U29" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="V29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="W29" s="17" t="s">
+      <c r="V29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W29" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="X29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z29" s="31" t="s">
+      <c r="X29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z29" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="AA29" s="17" t="s">
+      <c r="AA29" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="AB29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH29" s="17" t="s">
+      <c r="AB29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH29" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="AI29" s="17" t="s">
+      <c r="AI29" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="AJ29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK29" s="17" t="s">
+      <c r="AJ29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK29" s="18" t="s">
         <v>25</v>
       </c>
       <c r="AL29" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="21"/>
-      <c r="AX29" s="32"/>
-      <c r="BA29" s="32" t="s">
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AX29" s="33"/>
+      <c r="BA29" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="BB29" s="22" t="s">
+      <c r="BB29" s="23" t="s">
         <v>369</v>
       </c>
       <c r="BE29" s="10" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:57" s="22" customFormat="1" ht="64">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:57" s="23" customFormat="1" ht="64">
+      <c r="A30" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B30" s="10">
@@ -6536,117 +6594,117 @@
       <c r="F30" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="T30" s="17" t="s">
+      <c r="J30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U30" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="V30" s="17" t="s">
+      <c r="V30" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="W30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="X30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z30" s="31" t="s">
+      <c r="W30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z30" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="AA30" s="17" t="s">
+      <c r="AA30" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="AB30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH30" s="17" t="s">
+      <c r="AB30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH30" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="AI30" s="17" t="s">
+      <c r="AI30" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="AJ30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK30" s="17" t="s">
+      <c r="AJ30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK30" s="18" t="s">
         <v>25</v>
       </c>
       <c r="AL30" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AX30" s="32"/>
-      <c r="BA30" s="32" t="s">
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AX30" s="33"/>
+      <c r="BA30" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="BB30" s="22" t="s">
+      <c r="BB30" s="23" t="s">
         <v>321</v>
       </c>
       <c r="BE30" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:57" s="22" customFormat="1" ht="48">
-      <c r="A31" s="25" t="s">
+    <row r="31" spans="1:57" s="23" customFormat="1" ht="48">
+      <c r="A31" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B31" s="10">
@@ -6664,117 +6722,117 @@
       <c r="F31" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="17" t="s">
+      <c r="J31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="O31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="17" t="s">
+      <c r="O31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="Q31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31" s="17" t="s">
+      <c r="Q31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="T31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="V31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="W31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z31" s="31" t="s">
+      <c r="T31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="AA31" s="17" t="s">
+      <c r="AA31" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="AB31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD31" s="17" t="s">
+      <c r="AB31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD31" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="AE31" s="17" t="s">
+      <c r="AE31" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="AF31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK31" s="17" t="s">
+      <c r="AF31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK31" s="18" t="s">
         <v>25</v>
       </c>
       <c r="AL31" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AX31" s="32"/>
-      <c r="BA31" s="34" t="s">
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AX31" s="33"/>
+      <c r="BA31" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="BB31" s="22" t="s">
+      <c r="BB31" s="23" t="s">
         <v>321</v>
       </c>
       <c r="BE31" s="10" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:57" s="22" customFormat="1" ht="48">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:57" s="23" customFormat="1" ht="48">
+      <c r="A32" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B32" s="10">
@@ -6792,113 +6850,113 @@
       <c r="F32" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="17" t="s">
+      <c r="J32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="O32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" s="17" t="s">
+      <c r="O32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="Q32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="T32" s="17" t="s">
+      <c r="Q32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="U32" s="17" t="s">
+      <c r="U32" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="W32" s="17" t="s">
+      <c r="W32" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="X32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z32" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD32" s="17" t="s">
+      <c r="X32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z32" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD32" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="AE32" s="17" t="s">
+      <c r="AE32" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="AF32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH32" s="23" t="s">
+      <c r="AF32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH32" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="AI32" s="23" t="s">
+      <c r="AI32" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="AJ32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK32" s="17" t="s">
+      <c r="AJ32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK32" s="18" t="s">
         <v>25</v>
       </c>
       <c r="AL32" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AM32" s="23" t="s">
+      <c r="AM32" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="AN32" s="23"/>
-      <c r="AO32" s="23"/>
-      <c r="AP32" s="21"/>
-      <c r="AX32" s="32"/>
-      <c r="BA32" s="32" t="s">
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="22"/>
+      <c r="AX32" s="33"/>
+      <c r="BA32" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="BB32" s="22" t="s">
+      <c r="BB32" s="23" t="s">
         <v>321</v>
       </c>
       <c r="BE32" s="10" t="s">
@@ -6906,7 +6964,7 @@
       </c>
     </row>
     <row r="33" spans="1:57" ht="64">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>135</v>
       </c>
       <c r="B33" s="10">
@@ -6981,7 +7039,7 @@
       <c r="Y33" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z33" s="31" t="s">
+      <c r="Z33" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA33" s="2" t="s">
@@ -7011,7 +7069,7 @@
       <c r="AI33" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="AJ33" s="19" t="s">
+      <c r="AJ33" s="20" t="s">
         <v>348</v>
       </c>
       <c r="AK33" s="2" t="s">
@@ -7023,10 +7081,10 @@
       <c r="AM33" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="BA33" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB33" s="22" t="s">
+      <c r="BA33" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB33" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BE33" s="10" t="s">
@@ -7034,7 +7092,7 @@
       </c>
     </row>
     <row r="34" spans="1:57" ht="64">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="26" t="s">
         <v>136</v>
       </c>
       <c r="B34" s="10">
@@ -7109,7 +7167,7 @@
       <c r="Y34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z34" s="31" t="s">
+      <c r="Z34" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA34" s="2" t="s">
@@ -7148,10 +7206,10 @@
       <c r="AL34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA34" s="32" t="s">
+      <c r="BA34" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="BB34" s="22" t="s">
+      <c r="BB34" s="23" t="s">
         <v>321</v>
       </c>
       <c r="BE34" s="10" t="s">
@@ -7159,7 +7217,7 @@
       </c>
     </row>
     <row r="35" spans="1:57" ht="48">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>139</v>
       </c>
       <c r="B35" s="10">
@@ -7234,7 +7292,7 @@
       <c r="Y35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z35" s="31" t="s">
+      <c r="Z35" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA35" s="2" t="s">
@@ -7278,7 +7336,7 @@
       </c>
     </row>
     <row r="36" spans="1:57" ht="32">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="26" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="10">
@@ -7353,7 +7411,7 @@
       <c r="Y36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z36" s="31" t="s">
+      <c r="Z36" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA36" s="2" t="s">
@@ -7397,7 +7455,7 @@
       </c>
     </row>
     <row r="37" spans="1:57" ht="64">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>146</v>
       </c>
       <c r="B37" s="10">
@@ -7472,7 +7530,7 @@
       <c r="Y37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z37" s="31" t="s">
+      <c r="Z37" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA37" s="2" t="s">
@@ -7511,10 +7569,10 @@
       <c r="AL37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA37" s="32" t="s">
+      <c r="BA37" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="BB37" s="22" t="s">
+      <c r="BB37" s="23" t="s">
         <v>321</v>
       </c>
       <c r="BE37" s="10" t="s">
@@ -7522,7 +7580,7 @@
       </c>
     </row>
     <row r="38" spans="1:57" ht="48">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="10">
@@ -7597,7 +7655,7 @@
       <c r="Y38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z38" s="31" t="s">
+      <c r="Z38" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA38" s="2" t="s">
@@ -7636,10 +7694,10 @@
       <c r="AL38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA38" s="32" t="s">
+      <c r="BA38" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="BB38" s="22" t="s">
+      <c r="BB38" s="23" t="s">
         <v>321</v>
       </c>
       <c r="BE38" s="10" t="s">
@@ -7647,7 +7705,7 @@
       </c>
     </row>
     <row r="39" spans="1:57" ht="32">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>151</v>
       </c>
       <c r="B39" s="10">
@@ -7722,7 +7780,7 @@
       <c r="Y39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z39" s="31" t="s">
+      <c r="Z39" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA39" s="2" t="s">
@@ -7766,7 +7824,7 @@
       </c>
     </row>
     <row r="40" spans="1:57" ht="32">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="26" t="s">
         <v>154</v>
       </c>
       <c r="B40" s="10">
@@ -7841,7 +7899,7 @@
       <c r="Y40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z40" s="31" t="s">
+      <c r="Z40" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA40" s="2" t="s">
@@ -7885,7 +7943,7 @@
       </c>
     </row>
     <row r="41" spans="1:57" ht="64">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B41" s="10">
@@ -7958,7 +8016,7 @@
       <c r="Y41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z41" s="31" t="s">
+      <c r="Z41" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA41" s="2" t="s">
@@ -7997,7 +8055,7 @@
       <c r="AL41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA41" s="32" t="s">
+      <c r="BA41" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB41" s="1" t="s">
@@ -8008,7 +8066,7 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="48">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="26" t="s">
         <v>160</v>
       </c>
       <c r="B42" s="10">
@@ -8083,7 +8141,7 @@
       <c r="Y42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z42" s="31" t="s">
+      <c r="Z42" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA42" s="2" t="s">
@@ -8122,7 +8180,7 @@
       <c r="AL42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA42" s="32" t="s">
+      <c r="BA42" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BB42" s="1" t="s">
@@ -8133,7 +8191,7 @@
       </c>
     </row>
     <row r="43" spans="1:57" ht="32">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="26" t="s">
         <v>163</v>
       </c>
       <c r="B43" s="10">
@@ -8208,7 +8266,7 @@
       <c r="Y43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z43" s="35" t="s">
+      <c r="Z43" s="36" t="s">
         <v>318</v>
       </c>
       <c r="AA43" s="3" t="s">
@@ -8247,7 +8305,7 @@
       <c r="AL43" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="BA43" s="34" t="s">
+      <c r="BA43" s="35" t="s">
         <v>348</v>
       </c>
       <c r="BB43" s="1" t="s">
@@ -8258,7 +8316,7 @@
       </c>
     </row>
     <row r="44" spans="1:57" ht="48">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="26" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="10">
@@ -8333,7 +8391,7 @@
       <c r="Y44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z44" s="31" t="s">
+      <c r="Z44" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA44" s="2" t="s">
@@ -8377,7 +8435,7 @@
       </c>
     </row>
     <row r="45" spans="1:57" ht="48">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="26" t="s">
         <v>168</v>
       </c>
       <c r="B45" s="10">
@@ -8452,7 +8510,7 @@
       <c r="Y45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z45" s="31" t="s">
+      <c r="Z45" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA45" s="2" t="s">
@@ -8491,7 +8549,7 @@
       <c r="AL45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA45" s="32" t="s">
+      <c r="BA45" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BE45" s="10" t="s">
@@ -8499,7 +8557,7 @@
       </c>
     </row>
     <row r="46" spans="1:57" ht="48">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="26" t="s">
         <v>170</v>
       </c>
       <c r="B46" s="10">
@@ -8574,7 +8632,7 @@
       <c r="Y46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z46" s="31" t="s">
+      <c r="Z46" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA46" s="2" t="s">
@@ -8618,7 +8676,7 @@
       </c>
     </row>
     <row r="47" spans="1:57" ht="32">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="26" t="s">
         <v>173</v>
       </c>
       <c r="B47" s="10">
@@ -8693,7 +8751,7 @@
       <c r="Y47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z47" s="31" t="s">
+      <c r="Z47" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA47" s="2" t="s">
@@ -8732,7 +8790,7 @@
       <c r="AL47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA47" s="32" t="s">
+      <c r="BA47" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB47" s="1" t="s">
@@ -8743,7 +8801,7 @@
       </c>
     </row>
     <row r="48" spans="1:57" ht="48">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="26" t="s">
         <v>176</v>
       </c>
       <c r="B48" s="10">
@@ -8818,7 +8876,7 @@
       <c r="Y48" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z48" s="31" t="s">
+      <c r="Z48" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA48" s="2" t="s">
@@ -8857,7 +8915,7 @@
       <c r="AL48" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="BA48" s="32" t="s">
+      <c r="BA48" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB48" s="1" t="s">
@@ -8868,7 +8926,7 @@
       </c>
     </row>
     <row r="49" spans="1:57" ht="32">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="26" t="s">
         <v>177</v>
       </c>
       <c r="B49" s="10">
@@ -8943,7 +9001,7 @@
       <c r="Y49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z49" s="31" t="s">
+      <c r="Z49" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA49" s="2" t="s">
@@ -8984,7 +9042,7 @@
       </c>
     </row>
     <row r="50" spans="1:57" ht="64">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="26" t="s">
         <v>180</v>
       </c>
       <c r="B50" s="10">
@@ -9059,7 +9117,7 @@
       <c r="Y50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z50" s="31" t="s">
+      <c r="Z50" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA50" s="2" t="s">
@@ -9100,7 +9158,7 @@
       </c>
     </row>
     <row r="51" spans="1:57" ht="32">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="26" t="s">
         <v>183</v>
       </c>
       <c r="B51" s="10">
@@ -9175,7 +9233,7 @@
       <c r="Y51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z51" s="31" t="s">
+      <c r="Z51" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA51" s="2" t="s">
@@ -9216,7 +9274,7 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="48">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="26" t="s">
         <v>187</v>
       </c>
       <c r="B52" s="10">
@@ -9291,7 +9349,7 @@
       <c r="Y52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z52" s="31" t="s">
+      <c r="Z52" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA52" s="2" t="s">
@@ -9327,7 +9385,7 @@
       <c r="AK52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA52" s="32" t="s">
+      <c r="BA52" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB52" s="1" t="s">
@@ -9338,7 +9396,7 @@
       </c>
     </row>
     <row r="53" spans="1:57" ht="32">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="26" t="s">
         <v>190</v>
       </c>
       <c r="B53" s="10">
@@ -9413,7 +9471,7 @@
       <c r="Y53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z53" s="31" t="s">
+      <c r="Z53" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA53" s="2" t="s">
@@ -9449,7 +9507,7 @@
       <c r="AK53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA53" s="32" t="s">
+      <c r="BA53" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB53" s="1" t="s">
@@ -9460,7 +9518,7 @@
       </c>
     </row>
     <row r="54" spans="1:57" ht="32">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="26" t="s">
         <v>193</v>
       </c>
       <c r="B54" s="10">
@@ -9535,7 +9593,7 @@
       <c r="Y54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z54" s="31" t="s">
+      <c r="Z54" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA54" s="2" t="s">
@@ -9574,7 +9632,7 @@
       <c r="AM54" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="BA54" s="32" t="s">
+      <c r="BA54" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB54" s="1" t="s">
@@ -9585,7 +9643,7 @@
       </c>
     </row>
     <row r="55" spans="1:57" ht="48">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="26" t="s">
         <v>196</v>
       </c>
       <c r="B55" s="10">
@@ -9660,7 +9718,7 @@
       <c r="Y55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z55" s="31" t="s">
+      <c r="Z55" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA55" s="2" t="s">
@@ -9696,7 +9754,7 @@
       <c r="AK55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA55" s="32" t="s">
+      <c r="BA55" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB55" s="1" t="s">
@@ -9707,7 +9765,7 @@
       </c>
     </row>
     <row r="56" spans="1:57" ht="48">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="26" t="s">
         <v>199</v>
       </c>
       <c r="B56" s="10">
@@ -9782,7 +9840,7 @@
       <c r="Y56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="31" t="s">
+      <c r="Z56" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA56" s="2" t="s">
@@ -9818,7 +9876,7 @@
       <c r="AK56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA56" s="32" t="s">
+      <c r="BA56" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB56" s="1" t="s">
@@ -9829,7 +9887,7 @@
       </c>
     </row>
     <row r="57" spans="1:57" ht="64">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="26" t="s">
         <v>202</v>
       </c>
       <c r="B57" s="10">
@@ -9904,7 +9962,7 @@
       <c r="Y57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z57" s="31" t="s">
+      <c r="Z57" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA57" s="2" t="s">
@@ -9945,7 +10003,7 @@
       </c>
     </row>
     <row r="58" spans="1:57" ht="48">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="26" t="s">
         <v>205</v>
       </c>
       <c r="B58" s="10">
@@ -10020,7 +10078,7 @@
       <c r="Y58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z58" s="31" t="s">
+      <c r="Z58" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA58" s="2" t="s">
@@ -10061,7 +10119,7 @@
       </c>
     </row>
     <row r="59" spans="1:57" ht="48">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="26" t="s">
         <v>208</v>
       </c>
       <c r="B59" s="10">
@@ -10136,7 +10194,7 @@
       <c r="Y59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z59" s="31" t="s">
+      <c r="Z59" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA59" s="2" t="s">
@@ -10177,7 +10235,7 @@
       </c>
     </row>
     <row r="60" spans="1:57" ht="32">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>212</v>
       </c>
       <c r="B60" s="10">
@@ -10252,7 +10310,7 @@
       <c r="Y60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z60" s="31" t="s">
+      <c r="Z60" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA60" s="2" t="s">
@@ -10291,7 +10349,7 @@
       <c r="AM60" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BA60" s="32" t="s">
+      <c r="BA60" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB60" s="1" t="s">
@@ -10302,7 +10360,7 @@
       </c>
     </row>
     <row r="61" spans="1:57" ht="48">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="26" t="s">
         <v>215</v>
       </c>
       <c r="B61" s="10">
@@ -10377,7 +10435,7 @@
       <c r="Y61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z61" s="31" t="s">
+      <c r="Z61" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA61" s="2" t="s">
@@ -10413,10 +10471,10 @@
       <c r="AK61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM61" s="29" t="s">
+      <c r="AM61" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="BA61" s="32" t="s">
+      <c r="BA61" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB61" s="1" t="s">
@@ -10427,7 +10485,7 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="32">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="26" t="s">
         <v>218</v>
       </c>
       <c r="B62" s="10">
@@ -10502,7 +10560,7 @@
       <c r="Y62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z62" s="31" t="s">
+      <c r="Z62" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA62" s="2" t="s">
@@ -10538,7 +10596,7 @@
       <c r="AK62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA62" s="32" t="s">
+      <c r="BA62" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB62" s="1" t="s">
@@ -10549,7 +10607,7 @@
       </c>
     </row>
     <row r="63" spans="1:57" ht="32">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="26" t="s">
         <v>220</v>
       </c>
       <c r="B63" s="10">
@@ -10624,7 +10682,7 @@
       <c r="Y63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z63" s="31" t="s">
+      <c r="Z63" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA63" s="2" t="s">
@@ -10665,7 +10723,7 @@
       </c>
     </row>
     <row r="64" spans="1:57" ht="48">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="26" t="s">
         <v>224</v>
       </c>
       <c r="B64" s="10">
@@ -10740,7 +10798,7 @@
       <c r="Y64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z64" s="31" t="s">
+      <c r="Z64" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA64" s="2" t="s">
@@ -10776,7 +10834,7 @@
       <c r="AK64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA64" s="32" t="s">
+      <c r="BA64" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB64" s="1" t="s">
@@ -10787,7 +10845,7 @@
       </c>
     </row>
     <row r="65" spans="1:57" ht="48">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B65" s="10">
@@ -10862,7 +10920,7 @@
       <c r="Y65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z65" s="31" t="s">
+      <c r="Z65" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA65" s="2" t="s">
@@ -10909,7 +10967,7 @@
       </c>
     </row>
     <row r="66" spans="1:57" ht="48">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="26" t="s">
         <v>227</v>
       </c>
       <c r="B66" s="10">
@@ -10984,7 +11042,7 @@
       <c r="Y66" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z66" s="31" t="s">
+      <c r="Z66" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA66" s="2" t="s">
@@ -11020,7 +11078,7 @@
       <c r="AK66" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM66" s="29" t="s">
+      <c r="AM66" s="30" t="s">
         <v>476</v>
       </c>
       <c r="BB66" s="1" t="s">
@@ -11031,7 +11089,7 @@
       </c>
     </row>
     <row r="67" spans="1:57" ht="32">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="26" t="s">
         <v>229</v>
       </c>
       <c r="B67" s="10">
@@ -11106,7 +11164,7 @@
       <c r="Y67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z67" s="31" t="s">
+      <c r="Z67" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA67" s="2" t="s">
@@ -11142,10 +11200,10 @@
       <c r="AK67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM67" s="29" t="s">
+      <c r="AM67" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="BA67" s="32" t="s">
+      <c r="BA67" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB67" s="1" t="s">
@@ -11156,7 +11214,7 @@
       </c>
     </row>
     <row r="68" spans="1:57" ht="32">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="26" t="s">
         <v>231</v>
       </c>
       <c r="B68" s="10">
@@ -11231,7 +11289,7 @@
       <c r="Y68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z68" s="31" t="s">
+      <c r="Z68" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA68" s="2" t="s">
@@ -11267,7 +11325,7 @@
       <c r="AK68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA68" s="32" t="s">
+      <c r="BA68" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB68" s="1" t="s">
@@ -11278,7 +11336,7 @@
       </c>
     </row>
     <row r="69" spans="1:57" ht="48">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="26" t="s">
         <v>234</v>
       </c>
       <c r="B69" s="10">
@@ -11343,7 +11401,7 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
-      <c r="Z69" s="31" t="s">
+      <c r="Z69" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA69" s="2" t="s">
@@ -11352,7 +11410,7 @@
       <c r="AM69" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BA69" s="32" t="s">
+      <c r="BA69" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB69" s="1" t="s">
@@ -11363,7 +11421,7 @@
       </c>
     </row>
     <row r="70" spans="1:57" ht="48">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="26" t="s">
         <v>236</v>
       </c>
       <c r="B70" s="10">
@@ -11403,13 +11461,13 @@
         <v>25</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>25</v>
+        <v>576</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>25</v>
@@ -11418,7 +11476,7 @@
         <v>25</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>25</v>
@@ -11433,12 +11491,12 @@
         <v>25</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="Y70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z70" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z70" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA70" s="2" t="s">
@@ -11451,10 +11509,10 @@
         <v>25</v>
       </c>
       <c r="AD70" s="2" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="AF70" s="2" t="s">
         <v>25</v>
@@ -11474,10 +11532,13 @@
       <c r="AK70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM70" s="29" t="s">
+      <c r="AL70" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM70" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="BA70" s="32" t="s">
+      <c r="BA70" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB70" s="1" t="s">
@@ -11488,7 +11549,7 @@
       </c>
     </row>
     <row r="71" spans="1:57" ht="32">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="26" t="s">
         <v>238</v>
       </c>
       <c r="B71" s="10">
@@ -11546,24 +11607,24 @@
         <v>25</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>25</v>
+        <v>575</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="Y71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z71" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z71" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA71" s="2" t="s">
@@ -11587,11 +11648,11 @@
       <c r="AG71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AH71" s="2" t="s">
-        <v>25</v>
+      <c r="AH71" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="AI71" s="2" t="s">
-        <v>25</v>
+        <v>327</v>
       </c>
       <c r="AJ71" s="2" t="s">
         <v>25</v>
@@ -11599,10 +11660,13 @@
       <c r="AK71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM71" s="29" t="s">
+      <c r="AL71" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM71" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="BA71" s="32" t="s">
+      <c r="BA71" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB71" s="1" t="s">
@@ -11613,7 +11677,7 @@
       </c>
     </row>
     <row r="72" spans="1:57" ht="32">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="26" t="s">
         <v>240</v>
       </c>
       <c r="B72" s="10">
@@ -11671,10 +11735,10 @@
         <v>25</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>25</v>
+        <v>573</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>25</v>
@@ -11683,12 +11747,12 @@
         <v>25</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z72" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z72" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA72" s="2" t="s">
@@ -11713,18 +11777,30 @@
         <v>25</v>
       </c>
       <c r="AH72" s="2" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="AI72" s="2" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="AJ72" s="2" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="AK72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA72" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AL72" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AX72" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="AY72" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AZ72" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA72" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB72" s="1" t="s">
@@ -11735,7 +11811,7 @@
       </c>
     </row>
     <row r="73" spans="1:57" ht="32">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="26" t="s">
         <v>242</v>
       </c>
       <c r="B73" s="10">
@@ -11775,13 +11851,13 @@
         <v>25</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>25</v>
+        <v>572</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>25</v>
@@ -11790,7 +11866,7 @@
         <v>25</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>25</v>
@@ -11805,12 +11881,12 @@
         <v>25</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z73" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z73" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA73" s="2" t="s">
@@ -11846,10 +11922,13 @@
       <c r="AK73" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM73" s="29" t="s">
+      <c r="AL73" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM73" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="BA73" s="32" t="s">
+      <c r="BA73" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB73" s="1" t="s">
@@ -11860,7 +11939,7 @@
       </c>
     </row>
     <row r="74" spans="1:57" ht="48">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="26" t="s">
         <v>244</v>
       </c>
       <c r="B74" s="10">
@@ -11888,10 +11967,10 @@
         <v>44</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>25</v>
+        <v>571</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>25</v>
@@ -11930,22 +12009,22 @@
         <v>25</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="Y74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z74" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z74" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA74" s="2" t="s">
         <v>418</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="AD74" s="2" t="s">
         <v>25</v>
@@ -11971,7 +12050,10 @@
       <c r="AK74" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BA74" s="32" t="s">
+      <c r="AL74" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="BA74" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB74" s="1" t="s">
@@ -11982,7 +12064,7 @@
       </c>
     </row>
     <row r="75" spans="1:57" ht="48">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="26" t="s">
         <v>245</v>
       </c>
       <c r="B75" s="10">
@@ -12022,13 +12104,13 @@
         <v>25</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>25</v>
+        <v>567</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>25</v>
@@ -12037,27 +12119,27 @@
         <v>25</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>25</v>
+        <v>568</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="W75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="Y75" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z75" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z75" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA75" s="2" t="s">
@@ -12070,10 +12152,10 @@
         <v>25</v>
       </c>
       <c r="AD75" s="2" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="AE75" s="2" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="AF75" s="2" t="s">
         <v>25</v>
@@ -12082,18 +12164,51 @@
         <v>25</v>
       </c>
       <c r="AH75" s="2" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="AI75" s="2" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="AJ75" s="2" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="AK75" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA75" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AL75" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="AN75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO75" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP75" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX75" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="AY75" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AZ75" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA75" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BE75" s="10" t="s">
@@ -12101,7 +12216,7 @@
       </c>
     </row>
     <row r="76" spans="1:57" ht="48">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="26" t="s">
         <v>248</v>
       </c>
       <c r="B76" s="10">
@@ -12141,13 +12256,13 @@
         <v>25</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>25</v>
+        <v>565</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>25</v>
@@ -12156,7 +12271,7 @@
         <v>25</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="T76" s="2" t="s">
         <v>25</v>
@@ -12176,7 +12291,7 @@
       <c r="Y76" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z76" s="31" t="s">
+      <c r="Z76" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA76" s="2" t="s">
@@ -12189,10 +12304,10 @@
         <v>25</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="AF76" s="2" t="s">
         <v>25</v>
@@ -12211,13 +12326,16 @@
       </c>
       <c r="AK76" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="AL76" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="BE76" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:57" ht="32">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="26" t="s">
         <v>252</v>
       </c>
       <c r="B77" s="10">
@@ -12275,10 +12393,10 @@
         <v>25</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>25</v>
+        <v>563</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>25</v>
@@ -12292,7 +12410,7 @@
       <c r="Y77" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z77" s="31" t="s">
+      <c r="Z77" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA77" s="2" t="s">
@@ -12327,13 +12445,16 @@
       </c>
       <c r="AK77" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="AL77" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="BE77" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:57" ht="48">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="26" t="s">
         <v>256</v>
       </c>
       <c r="B78" s="10">
@@ -12373,22 +12494,22 @@
         <v>25</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>25</v>
@@ -12408,11 +12529,11 @@
       <c r="Y78" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z78" s="31" t="s">
-        <v>25</v>
+      <c r="Z78" s="32" t="s">
+        <v>318</v>
       </c>
       <c r="AA78" s="2" t="s">
-        <v>25</v>
+        <v>529</v>
       </c>
       <c r="AB78" s="2" t="s">
         <v>25</v>
@@ -12421,10 +12542,10 @@
         <v>25</v>
       </c>
       <c r="AD78" s="2" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>25</v>
+        <v>369</v>
       </c>
       <c r="AF78" s="2" t="s">
         <v>25</v>
@@ -12442,6 +12563,21 @@
         <v>25</v>
       </c>
       <c r="AK78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL78" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="BA78" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB78" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BC78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD78" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BE78" s="10" t="s">
@@ -12449,7 +12585,7 @@
       </c>
     </row>
     <row r="79" spans="1:57" ht="48">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="26" t="s">
         <v>260</v>
       </c>
       <c r="B79" s="10">
@@ -12524,7 +12660,7 @@
       <c r="Y79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z79" s="31" t="s">
+      <c r="Z79" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA79" s="2" t="s">
@@ -12568,7 +12704,7 @@
       </c>
     </row>
     <row r="80" spans="1:57" ht="32">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="26" t="s">
         <v>264</v>
       </c>
       <c r="B80" s="10">
@@ -12601,27 +12737,106 @@
       <c r="K80" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="31" t="s">
+      <c r="L80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z80" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA80" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="BA80" s="32" t="s">
+      <c r="AB80" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC80" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH80" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI80" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL80" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO80" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP80" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA80" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB80" s="1" t="s">
@@ -12632,7 +12847,7 @@
       </c>
     </row>
     <row r="81" spans="1:57" ht="32">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="26" t="s">
         <v>266</v>
       </c>
       <c r="B81" s="10">
@@ -12672,13 +12887,13 @@
         <v>25</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>25</v>
+        <v>318</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>25</v>
+        <v>559</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>25</v>
@@ -12687,7 +12902,7 @@
         <v>25</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="T81" s="2" t="s">
         <v>25</v>
@@ -12707,7 +12922,7 @@
       <c r="Y81" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z81" s="31" t="s">
+      <c r="Z81" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA81" s="2" t="s">
@@ -12732,23 +12947,26 @@
         <v>25</v>
       </c>
       <c r="AH81" s="2" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="AI81" s="2" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="AJ81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="AL81" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="BE81" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:57" ht="32">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="26" t="s">
         <v>270</v>
       </c>
       <c r="B82" s="10">
@@ -12823,7 +13041,7 @@
       <c r="Y82" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z82" s="31" t="s">
+      <c r="Z82" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA82" s="2" t="s">
@@ -12867,7 +13085,7 @@
       </c>
     </row>
     <row r="83" spans="1:57" ht="32">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="26" t="s">
         <v>274</v>
       </c>
       <c r="B83" s="10">
@@ -12942,7 +13160,7 @@
       <c r="Y83" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="Z83" s="31" t="s">
+      <c r="Z83" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA83" s="2" t="s">
@@ -13011,7 +13229,7 @@
       <c r="AW83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AX83" s="32" t="s">
+      <c r="AX83" s="33" t="s">
         <v>25</v>
       </c>
       <c r="AY83" s="1" t="s">
@@ -13020,7 +13238,7 @@
       <c r="AZ83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BA83" s="32" t="s">
+      <c r="BA83" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB83" s="1" t="s">
@@ -13037,7 +13255,7 @@
       </c>
     </row>
     <row r="84" spans="1:57" ht="48">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="26" t="s">
         <v>276</v>
       </c>
       <c r="B84" s="10">
@@ -13112,7 +13330,7 @@
       <c r="Y84" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z84" s="31" t="s">
+      <c r="Z84" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA84" s="2" t="s">
@@ -13157,7 +13375,7 @@
       <c r="AO84" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AX84" s="32" t="s">
+      <c r="AX84" s="33" t="s">
         <v>555</v>
       </c>
       <c r="AY84" s="1" t="s">
@@ -13166,7 +13384,7 @@
       <c r="AZ84" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BA84" s="32" t="s">
+      <c r="BA84" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB84" s="1" t="s">
@@ -13183,7 +13401,7 @@
       </c>
     </row>
     <row r="85" spans="1:57" ht="64">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="26" t="s">
         <v>278</v>
       </c>
       <c r="B85" s="10">
@@ -13258,7 +13476,7 @@
       <c r="Y85" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="Z85" s="31" t="s">
+      <c r="Z85" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA85" s="2" t="s">
@@ -13302,7 +13520,7 @@
       </c>
     </row>
     <row r="86" spans="1:57" ht="48">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="26" t="s">
         <v>282</v>
       </c>
       <c r="B86" s="10">
@@ -13377,7 +13595,7 @@
       <c r="Y86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z86" s="31" t="s">
+      <c r="Z86" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA86" s="2" t="s">
@@ -13416,7 +13634,7 @@
       <c r="AL86" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="AM86" s="29" t="s">
+      <c r="AM86" s="30" t="s">
         <v>493</v>
       </c>
       <c r="BE86" s="10" t="s">
@@ -13424,7 +13642,7 @@
       </c>
     </row>
     <row r="87" spans="1:57" ht="48">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="26" t="s">
         <v>286</v>
       </c>
       <c r="B87" s="10">
@@ -13499,7 +13717,7 @@
       <c r="Y87" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z87" s="31" t="s">
+      <c r="Z87" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA87" s="2" t="s">
@@ -13552,7 +13770,7 @@
       </c>
     </row>
     <row r="88" spans="1:57" ht="48">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="26" t="s">
         <v>289</v>
       </c>
       <c r="B88" s="10">
@@ -13627,7 +13845,7 @@
       <c r="Y88" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z88" s="35" t="s">
+      <c r="Z88" s="36" t="s">
         <v>318</v>
       </c>
       <c r="AA88" s="15" t="s">
@@ -13696,7 +13914,7 @@
       <c r="AW88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AX88" s="32" t="s">
+      <c r="AX88" s="33" t="s">
         <v>25</v>
       </c>
       <c r="AY88" s="1" t="s">
@@ -13705,7 +13923,7 @@
       <c r="AZ88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BA88" s="32" t="s">
+      <c r="BA88" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB88" s="1" t="s">
@@ -13722,7 +13940,7 @@
       </c>
     </row>
     <row r="89" spans="1:57" ht="48">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="26" t="s">
         <v>291</v>
       </c>
       <c r="B89" s="10">
@@ -13797,7 +14015,7 @@
       <c r="Y89" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z89" s="31" t="s">
+      <c r="Z89" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA89" s="2" t="s">
@@ -13836,7 +14054,7 @@
       <c r="AL89" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="AM89" s="29" t="s">
+      <c r="AM89" s="30" t="s">
         <v>498</v>
       </c>
       <c r="AN89" s="3" t="s">
@@ -13869,7 +14087,7 @@
       <c r="AW89" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AX89" s="32" t="s">
+      <c r="AX89" s="33" t="s">
         <v>25</v>
       </c>
       <c r="AY89" s="1" t="s">
@@ -13878,7 +14096,7 @@
       <c r="AZ89" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BA89" s="32" t="s">
+      <c r="BA89" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB89" s="1" t="s">
@@ -13895,7 +14113,7 @@
       </c>
     </row>
     <row r="90" spans="1:57" ht="48">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="26" t="s">
         <v>293</v>
       </c>
       <c r="B90" s="10">
@@ -13970,7 +14188,7 @@
       <c r="Y90" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z90" s="31" t="s">
+      <c r="Z90" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA90" s="2" t="s">
@@ -14009,7 +14227,7 @@
       <c r="AL90" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AM90" s="29" t="s">
+      <c r="AM90" s="30" t="s">
         <v>500</v>
       </c>
       <c r="AN90" s="3" t="s">
@@ -14042,7 +14260,7 @@
       <c r="AW90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AX90" s="32" t="s">
+      <c r="AX90" s="33" t="s">
         <v>25</v>
       </c>
       <c r="AY90" s="1" t="s">
@@ -14051,7 +14269,7 @@
       <c r="AZ90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BA90" s="32" t="s">
+      <c r="BA90" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB90" s="1" t="s">
@@ -14068,7 +14286,7 @@
       </c>
     </row>
     <row r="91" spans="1:57" ht="48">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="26" t="s">
         <v>296</v>
       </c>
       <c r="B91" s="10">
@@ -14143,7 +14361,7 @@
       <c r="Y91" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="Z91" s="31" t="s">
+      <c r="Z91" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA91" s="2" t="s">
@@ -14212,7 +14430,7 @@
       <c r="AW91" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AX91" s="32" t="s">
+      <c r="AX91" s="33" t="s">
         <v>25</v>
       </c>
       <c r="AY91" s="1" t="s">
@@ -14221,7 +14439,7 @@
       <c r="AZ91" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BA91" s="32" t="s">
+      <c r="BA91" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BB91" s="1" t="s">
@@ -14238,7 +14456,7 @@
       </c>
     </row>
     <row r="92" spans="1:57" ht="32">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="26" t="s">
         <v>299</v>
       </c>
       <c r="B92" s="10">
@@ -14313,7 +14531,7 @@
       <c r="Y92" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z92" s="31" t="s">
+      <c r="Z92" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA92" s="2" t="s">
@@ -14378,7 +14596,7 @@
       </c>
     </row>
     <row r="93" spans="1:57" ht="48">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="26" t="s">
         <v>303</v>
       </c>
       <c r="B93" s="10">
@@ -14453,7 +14671,7 @@
       <c r="Y93" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z93" s="31" t="s">
+      <c r="Z93" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA93" s="2" t="s">
@@ -14513,7 +14731,7 @@
       <c r="AW93" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AX93" s="32" t="s">
+      <c r="AX93" s="33" t="s">
         <v>538</v>
       </c>
       <c r="AY93" s="1" t="s">
@@ -14522,7 +14740,7 @@
       <c r="AZ93" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BA93" s="32" t="s">
+      <c r="BA93" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BB93" s="1" t="s">
@@ -14539,7 +14757,7 @@
       </c>
     </row>
     <row r="94" spans="1:57" ht="32">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="26" t="s">
         <v>306</v>
       </c>
       <c r="B94" s="10">
@@ -14614,7 +14832,7 @@
       <c r="Y94" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="Z94" s="31" t="s">
+      <c r="Z94" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA94" s="2" t="s">
@@ -14683,7 +14901,7 @@
       <c r="AW94" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AX94" s="32" t="s">
+      <c r="AX94" s="33" t="s">
         <v>25</v>
       </c>
       <c r="AY94" s="1" t="s">
@@ -14692,7 +14910,7 @@
       <c r="AZ94" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BA94" s="32" t="s">
+      <c r="BA94" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BB94" s="1" t="s">
@@ -14709,7 +14927,7 @@
       </c>
     </row>
     <row r="95" spans="1:57" ht="32">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="26" t="s">
         <v>308</v>
       </c>
       <c r="B95" s="10">
@@ -14784,7 +15002,7 @@
       <c r="Y95" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z95" s="31" t="s">
+      <c r="Z95" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA95" s="2" t="s">
@@ -14823,10 +15041,10 @@
       <c r="AL95" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AM95" s="29" t="s">
+      <c r="AM95" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="BA95" s="32" t="s">
+      <c r="BA95" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB95" s="1" t="s">
@@ -14837,7 +15055,7 @@
       </c>
     </row>
     <row r="96" spans="1:57" ht="48">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="26" t="s">
         <v>310</v>
       </c>
       <c r="B96" s="10">
@@ -14912,7 +15130,7 @@
       <c r="Y96" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Z96" s="31" t="s">
+      <c r="Z96" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA96" s="2" t="s">
@@ -14951,13 +15169,13 @@
       <c r="AL96" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AM96" s="29" t="s">
+      <c r="AM96" s="30" t="s">
         <v>503</v>
       </c>
       <c r="AN96" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA96" s="32" t="s">
+      <c r="BA96" s="33" t="s">
         <v>348</v>
       </c>
       <c r="BB96" s="1" t="s">
@@ -14968,7 +15186,7 @@
       </c>
     </row>
     <row r="97" spans="1:57" ht="64">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="26" t="s">
         <v>312</v>
       </c>
       <c r="B97" s="10">
@@ -15028,13 +15246,13 @@
       <c r="T97" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="U97" s="38" t="s">
+      <c r="U97" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="V97" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="W97" s="39" t="s">
+      <c r="V97" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="W97" s="40" t="s">
         <v>318</v>
       </c>
       <c r="X97" s="2" t="s">
@@ -15043,7 +15261,7 @@
       <c r="Y97" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="Z97" s="31" t="s">
+      <c r="Z97" s="32" t="s">
         <v>318</v>
       </c>
       <c r="AA97" s="3" t="s">
@@ -15082,7 +15300,7 @@
       <c r="AL97" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="AM97" s="29" t="s">
+      <c r="AM97" s="30" t="s">
         <v>506</v>
       </c>
       <c r="AN97" s="3" t="s">
@@ -15097,7 +15315,7 @@
       <c r="AQ97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AX97" s="32" t="s">
+      <c r="AX97" s="33" t="s">
         <v>25</v>
       </c>
       <c r="AY97" s="1" t="s">
@@ -15106,7 +15324,7 @@
       <c r="AZ97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BA97" s="32" t="s">
+      <c r="BA97" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BB97" s="1" t="s">
@@ -15123,7 +15341,7 @@
       </c>
     </row>
     <row r="98" spans="1:57" ht="32">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="26" t="s">
         <v>314</v>
       </c>
       <c r="B98" s="10">
@@ -15198,7 +15416,7 @@
       <c r="Y98" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z98" s="31" t="s">
+      <c r="Z98" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA98" s="2" t="s">
@@ -15240,7 +15458,7 @@
       <c r="AN98" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AX98" s="32" t="s">
+      <c r="AX98" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BD98" s="1" t="s">
@@ -15251,7 +15469,7 @@
       </c>
     </row>
     <row r="99" spans="1:57" ht="64">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="26" t="s">
         <v>316</v>
       </c>
       <c r="B99" s="10">
@@ -15326,7 +15544,7 @@
       <c r="Y99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z99" s="31" t="s">
+      <c r="Z99" s="32" t="s">
         <v>25</v>
       </c>
       <c r="AA99" s="2" t="s">
@@ -15368,10 +15586,10 @@
       <c r="AN99" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AX99" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA99" s="32" t="s">
+      <c r="AX99" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA99" s="33" t="s">
         <v>25</v>
       </c>
       <c r="BB99" s="1" t="s">
@@ -15408,7 +15626,7 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
-      <c r="Z100" s="31"/>
+      <c r="Z100" s="32"/>
       <c r="AA100" s="3"/>
       <c r="BE100" s="3"/>
     </row>
@@ -15436,7 +15654,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
-      <c r="Z101" s="31"/>
+      <c r="Z101" s="32"/>
       <c r="AA101" s="3"/>
       <c r="BE101" s="3"/>
     </row>
@@ -15464,7 +15682,7 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
-      <c r="Z102" s="31"/>
+      <c r="Z102" s="32"/>
       <c r="AA102" s="3"/>
       <c r="BE102" s="3"/>
     </row>
@@ -15492,7 +15710,7 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
-      <c r="Z103" s="31"/>
+      <c r="Z103" s="32"/>
       <c r="AA103" s="3"/>
       <c r="BE103" s="3"/>
     </row>
@@ -15520,7 +15738,7 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
-      <c r="Z104" s="31"/>
+      <c r="Z104" s="32"/>
       <c r="AA104" s="3"/>
       <c r="BE104" s="3"/>
     </row>
@@ -15548,7 +15766,7 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
-      <c r="Z105" s="31"/>
+      <c r="Z105" s="32"/>
       <c r="AA105" s="3"/>
       <c r="BE105" s="3"/>
     </row>
@@ -15576,7 +15794,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
-      <c r="Z106" s="31"/>
+      <c r="Z106" s="32"/>
       <c r="AA106" s="3"/>
       <c r="BE106" s="3"/>
     </row>
@@ -15604,7 +15822,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
-      <c r="Z107" s="31"/>
+      <c r="Z107" s="32"/>
       <c r="AA107" s="3"/>
       <c r="BE107" s="3"/>
     </row>
@@ -15632,7 +15850,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
-      <c r="Z108" s="31"/>
+      <c r="Z108" s="32"/>
       <c r="AA108" s="3"/>
       <c r="BE108" s="3"/>
     </row>
@@ -15660,7 +15878,7 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
-      <c r="Z109" s="31"/>
+      <c r="Z109" s="32"/>
       <c r="AA109" s="3"/>
       <c r="BE109" s="3"/>
     </row>
@@ -15688,7 +15906,7 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
-      <c r="Z110" s="31"/>
+      <c r="Z110" s="32"/>
       <c r="AA110" s="3"/>
       <c r="BE110" s="3"/>
     </row>
@@ -15716,7 +15934,7 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
-      <c r="Z111" s="31"/>
+      <c r="Z111" s="32"/>
       <c r="AA111" s="3"/>
       <c r="BE111" s="3"/>
     </row>
@@ -15744,7 +15962,7 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
-      <c r="Z112" s="31"/>
+      <c r="Z112" s="32"/>
       <c r="AA112" s="3"/>
       <c r="BE112" s="3"/>
     </row>
@@ -15772,7 +15990,7 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
-      <c r="Z113" s="31"/>
+      <c r="Z113" s="32"/>
       <c r="AA113" s="3"/>
       <c r="BE113" s="3"/>
     </row>
@@ -15800,7 +16018,7 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
-      <c r="Z114" s="31"/>
+      <c r="Z114" s="32"/>
       <c r="AA114" s="3"/>
       <c r="BE114" s="3"/>
     </row>
@@ -15828,7 +16046,7 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
-      <c r="Z115" s="31"/>
+      <c r="Z115" s="32"/>
       <c r="AA115" s="3"/>
       <c r="BE115" s="3"/>
     </row>
@@ -15856,7 +16074,7 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
-      <c r="Z116" s="31"/>
+      <c r="Z116" s="32"/>
       <c r="AA116" s="3"/>
       <c r="BE116" s="3"/>
     </row>
@@ -15884,7 +16102,7 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
-      <c r="Z117" s="31"/>
+      <c r="Z117" s="32"/>
       <c r="AA117" s="3"/>
       <c r="BE117" s="3"/>
     </row>
@@ -15912,7 +16130,7 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
-      <c r="Z118" s="31"/>
+      <c r="Z118" s="32"/>
       <c r="AA118" s="3"/>
       <c r="BE118" s="3"/>
     </row>
@@ -15940,7 +16158,7 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
-      <c r="Z119" s="31"/>
+      <c r="Z119" s="32"/>
       <c r="AA119" s="3"/>
       <c r="BE119" s="3"/>
     </row>
@@ -15968,7 +16186,7 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
-      <c r="Z120" s="31"/>
+      <c r="Z120" s="32"/>
       <c r="AA120" s="3"/>
       <c r="BE120" s="3"/>
     </row>
@@ -15996,7 +16214,7 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
-      <c r="Z121" s="31"/>
+      <c r="Z121" s="32"/>
       <c r="AA121" s="3"/>
       <c r="BE121" s="3"/>
     </row>
@@ -16024,7 +16242,7 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
-      <c r="Z122" s="31"/>
+      <c r="Z122" s="32"/>
       <c r="AA122" s="3"/>
       <c r="BE122" s="3"/>
     </row>
@@ -16052,7 +16270,7 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
-      <c r="Z123" s="31"/>
+      <c r="Z123" s="32"/>
       <c r="AA123" s="3"/>
       <c r="BE123" s="3"/>
     </row>
@@ -16080,7 +16298,7 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
-      <c r="Z124" s="31"/>
+      <c r="Z124" s="32"/>
       <c r="AA124" s="3"/>
       <c r="BE124" s="3"/>
     </row>
@@ -16108,7 +16326,7 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
-      <c r="Z125" s="31"/>
+      <c r="Z125" s="32"/>
       <c r="AA125" s="3"/>
       <c r="BE125" s="3"/>
     </row>
@@ -16136,7 +16354,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
-      <c r="Z126" s="31"/>
+      <c r="Z126" s="32"/>
       <c r="AA126" s="3"/>
       <c r="BE126" s="3"/>
     </row>
@@ -16164,7 +16382,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
-      <c r="Z127" s="31"/>
+      <c r="Z127" s="32"/>
       <c r="AA127" s="3"/>
       <c r="BE127" s="3"/>
     </row>
@@ -16192,7 +16410,7 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
-      <c r="Z128" s="31"/>
+      <c r="Z128" s="32"/>
       <c r="AA128" s="3"/>
       <c r="BE128" s="3"/>
     </row>
@@ -16220,7 +16438,7 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
-      <c r="Z129" s="31"/>
+      <c r="Z129" s="32"/>
       <c r="AA129" s="3"/>
       <c r="BE129" s="3"/>
     </row>
@@ -16248,7 +16466,7 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
-      <c r="Z130" s="31"/>
+      <c r="Z130" s="32"/>
       <c r="AA130" s="3"/>
       <c r="BE130" s="3"/>
     </row>
@@ -16276,7 +16494,7 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
-      <c r="Z131" s="31"/>
+      <c r="Z131" s="32"/>
       <c r="AA131" s="3"/>
       <c r="BE131" s="3"/>
     </row>
@@ -16304,7 +16522,7 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
-      <c r="Z132" s="31"/>
+      <c r="Z132" s="32"/>
       <c r="AA132" s="3"/>
       <c r="BE132" s="3"/>
     </row>
@@ -16332,7 +16550,7 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
-      <c r="Z133" s="31"/>
+      <c r="Z133" s="32"/>
       <c r="AA133" s="3"/>
       <c r="BE133" s="3"/>
     </row>
@@ -16360,7 +16578,7 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
-      <c r="Z134" s="31"/>
+      <c r="Z134" s="32"/>
       <c r="AA134" s="3"/>
       <c r="BE134" s="3"/>
     </row>
@@ -16388,7 +16606,7 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
-      <c r="Z135" s="31"/>
+      <c r="Z135" s="32"/>
       <c r="AA135" s="3"/>
       <c r="BE135" s="3"/>
     </row>
@@ -16416,7 +16634,7 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
-      <c r="Z136" s="31"/>
+      <c r="Z136" s="32"/>
       <c r="AA136" s="3"/>
       <c r="BE136" s="3"/>
     </row>
@@ -16444,7 +16662,7 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
-      <c r="Z137" s="31"/>
+      <c r="Z137" s="32"/>
       <c r="AA137" s="3"/>
       <c r="BE137" s="3"/>
     </row>
@@ -16472,7 +16690,7 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
-      <c r="Z138" s="31"/>
+      <c r="Z138" s="32"/>
       <c r="AA138" s="3"/>
       <c r="BE138" s="3"/>
     </row>
@@ -16500,7 +16718,7 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
-      <c r="Z139" s="31"/>
+      <c r="Z139" s="32"/>
       <c r="AA139" s="3"/>
       <c r="BE139" s="3"/>
     </row>
@@ -16528,7 +16746,7 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
-      <c r="Z140" s="31"/>
+      <c r="Z140" s="32"/>
       <c r="AA140" s="3"/>
       <c r="BE140" s="3"/>
     </row>
@@ -16556,7 +16774,7 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
-      <c r="Z141" s="31"/>
+      <c r="Z141" s="32"/>
       <c r="AA141" s="3"/>
       <c r="BE141" s="3"/>
     </row>
@@ -16584,7 +16802,7 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
-      <c r="Z142" s="31"/>
+      <c r="Z142" s="32"/>
       <c r="AA142" s="3"/>
       <c r="BE142" s="3"/>
     </row>
@@ -16612,7 +16830,7 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
-      <c r="Z143" s="31"/>
+      <c r="Z143" s="32"/>
       <c r="AA143" s="3"/>
       <c r="BE143" s="3"/>
     </row>
@@ -16640,7 +16858,7 @@
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
-      <c r="Z144" s="31"/>
+      <c r="Z144" s="32"/>
       <c r="AA144" s="3"/>
       <c r="BE144" s="3"/>
     </row>
@@ -16668,7 +16886,7 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
-      <c r="Z145" s="31"/>
+      <c r="Z145" s="32"/>
       <c r="AA145" s="3"/>
       <c r="BE145" s="3"/>
     </row>
@@ -16696,7 +16914,7 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
-      <c r="Z146" s="31"/>
+      <c r="Z146" s="32"/>
       <c r="AA146" s="3"/>
       <c r="BE146" s="3"/>
     </row>
@@ -16724,7 +16942,7 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
-      <c r="Z147" s="31"/>
+      <c r="Z147" s="32"/>
       <c r="AA147" s="3"/>
       <c r="BE147" s="3"/>
     </row>
@@ -16752,7 +16970,7 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
-      <c r="Z148" s="31"/>
+      <c r="Z148" s="32"/>
       <c r="AA148" s="3"/>
       <c r="BE148" s="3"/>
     </row>
@@ -16780,7 +16998,7 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
-      <c r="Z149" s="31"/>
+      <c r="Z149" s="32"/>
       <c r="AA149" s="3"/>
       <c r="BE149" s="3"/>
     </row>
@@ -16808,7 +17026,7 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
-      <c r="Z150" s="31"/>
+      <c r="Z150" s="32"/>
       <c r="AA150" s="3"/>
       <c r="BE150" s="3"/>
     </row>
@@ -16836,7 +17054,7 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
-      <c r="Z151" s="31"/>
+      <c r="Z151" s="32"/>
       <c r="AA151" s="3"/>
       <c r="BE151" s="3"/>
     </row>
@@ -16864,7 +17082,7 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
-      <c r="Z152" s="31"/>
+      <c r="Z152" s="32"/>
       <c r="AA152" s="3"/>
       <c r="BE152" s="3"/>
     </row>
@@ -16892,7 +17110,7 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
-      <c r="Z153" s="31"/>
+      <c r="Z153" s="32"/>
       <c r="AA153" s="3"/>
       <c r="BE153" s="3"/>
     </row>
@@ -16920,7 +17138,7 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
-      <c r="Z154" s="31"/>
+      <c r="Z154" s="32"/>
       <c r="AA154" s="3"/>
       <c r="BE154" s="3"/>
     </row>
@@ -16948,7 +17166,7 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
-      <c r="Z155" s="31"/>
+      <c r="Z155" s="32"/>
       <c r="AA155" s="3"/>
       <c r="BE155" s="3"/>
     </row>
@@ -16976,7 +17194,7 @@
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
-      <c r="Z156" s="31"/>
+      <c r="Z156" s="32"/>
       <c r="AA156" s="3"/>
       <c r="BE156" s="3"/>
     </row>
@@ -17004,7 +17222,7 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
-      <c r="Z157" s="31"/>
+      <c r="Z157" s="32"/>
       <c r="AA157" s="3"/>
       <c r="BE157" s="3"/>
     </row>
@@ -17032,7 +17250,7 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
-      <c r="Z158" s="31"/>
+      <c r="Z158" s="32"/>
       <c r="AA158" s="3"/>
       <c r="BE158" s="3"/>
     </row>
@@ -17060,7 +17278,7 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
-      <c r="Z159" s="31"/>
+      <c r="Z159" s="32"/>
       <c r="AA159" s="3"/>
       <c r="BE159" s="3"/>
     </row>
@@ -17088,7 +17306,7 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
-      <c r="Z160" s="31"/>
+      <c r="Z160" s="32"/>
       <c r="AA160" s="3"/>
       <c r="BE160" s="3"/>
     </row>
@@ -17116,7 +17334,7 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
-      <c r="Z161" s="31"/>
+      <c r="Z161" s="32"/>
       <c r="AA161" s="3"/>
       <c r="BE161" s="3"/>
     </row>
@@ -17144,7 +17362,7 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
-      <c r="Z162" s="31"/>
+      <c r="Z162" s="32"/>
       <c r="AA162" s="3"/>
       <c r="BE162" s="3"/>
     </row>
@@ -17172,7 +17390,7 @@
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
-      <c r="Z163" s="31"/>
+      <c r="Z163" s="32"/>
       <c r="AA163" s="3"/>
       <c r="BE163" s="3"/>
     </row>
@@ -17200,7 +17418,7 @@
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
-      <c r="Z164" s="31"/>
+      <c r="Z164" s="32"/>
       <c r="AA164" s="3"/>
       <c r="BE164" s="3"/>
     </row>
@@ -17228,7 +17446,7 @@
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
-      <c r="Z165" s="31"/>
+      <c r="Z165" s="32"/>
       <c r="AA165" s="3"/>
       <c r="BE165" s="3"/>
     </row>
@@ -17256,7 +17474,7 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
-      <c r="Z166" s="31"/>
+      <c r="Z166" s="32"/>
       <c r="AA166" s="3"/>
       <c r="BE166" s="3"/>
     </row>
@@ -17284,7 +17502,7 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
-      <c r="Z167" s="31"/>
+      <c r="Z167" s="32"/>
       <c r="AA167" s="3"/>
       <c r="BE167" s="3"/>
     </row>
@@ -17312,7 +17530,7 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
-      <c r="Z168" s="31"/>
+      <c r="Z168" s="32"/>
       <c r="AA168" s="3"/>
       <c r="BE168" s="3"/>
     </row>
@@ -17340,7 +17558,7 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
-      <c r="Z169" s="31"/>
+      <c r="Z169" s="32"/>
       <c r="AA169" s="3"/>
       <c r="BE169" s="3"/>
     </row>
@@ -17368,7 +17586,7 @@
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
-      <c r="Z170" s="31"/>
+      <c r="Z170" s="32"/>
       <c r="AA170" s="3"/>
       <c r="BE170" s="3"/>
     </row>
@@ -17396,7 +17614,7 @@
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
-      <c r="Z171" s="31"/>
+      <c r="Z171" s="32"/>
       <c r="AA171" s="3"/>
       <c r="BE171" s="3"/>
     </row>
@@ -17424,7 +17642,7 @@
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
-      <c r="Z172" s="31"/>
+      <c r="Z172" s="32"/>
       <c r="AA172" s="3"/>
       <c r="BE172" s="3"/>
     </row>
@@ -17452,15 +17670,15 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
-      <c r="Z173" s="31"/>
+      <c r="Z173" s="32"/>
       <c r="AA173" s="3"/>
       <c r="BE173" s="3"/>
     </row>
     <row r="174" spans="1:57">
-      <c r="A174" s="26"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="27"/>
-      <c r="F174" s="27"/>
+      <c r="A174" s="27"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="F174" s="28"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
@@ -17480,15 +17698,15 @@
       <c r="W174" s="4"/>
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
-      <c r="Z174" s="31"/>
+      <c r="Z174" s="32"/>
       <c r="AA174" s="4"/>
-      <c r="BE174" s="27"/>
+      <c r="BE174" s="28"/>
     </row>
     <row r="175" spans="1:57">
-      <c r="A175" s="26"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="27"/>
-      <c r="F175" s="27"/>
+      <c r="A175" s="27"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="F175" s="28"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
@@ -17508,15 +17726,15 @@
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
-      <c r="Z175" s="31"/>
+      <c r="Z175" s="32"/>
       <c r="AA175" s="4"/>
-      <c r="BE175" s="27"/>
+      <c r="BE175" s="28"/>
     </row>
     <row r="176" spans="1:57">
-      <c r="A176" s="26"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="27"/>
-      <c r="F176" s="27"/>
+      <c r="A176" s="27"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="F176" s="28"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
@@ -17536,15 +17754,15 @@
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
-      <c r="Z176" s="31"/>
+      <c r="Z176" s="32"/>
       <c r="AA176" s="5"/>
-      <c r="BE176" s="27"/>
+      <c r="BE176" s="28"/>
     </row>
     <row r="177" spans="1:57">
-      <c r="A177" s="26"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
-      <c r="F177" s="27"/>
+      <c r="A177" s="27"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="F177" s="28"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
@@ -17564,15 +17782,15 @@
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
       <c r="Y177" s="4"/>
-      <c r="Z177" s="31"/>
+      <c r="Z177" s="32"/>
       <c r="AA177" s="4"/>
-      <c r="BE177" s="27"/>
+      <c r="BE177" s="28"/>
     </row>
     <row r="178" spans="1:57">
-      <c r="A178" s="26"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
-      <c r="F178" s="27"/>
+      <c r="A178" s="27"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="F178" s="28"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
@@ -17592,15 +17810,15 @@
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
-      <c r="Z178" s="31"/>
+      <c r="Z178" s="32"/>
       <c r="AA178" s="4"/>
-      <c r="BE178" s="27"/>
+      <c r="BE178" s="28"/>
     </row>
     <row r="179" spans="1:57">
-      <c r="A179" s="26"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
-      <c r="F179" s="27"/>
+      <c r="A179" s="27"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="F179" s="28"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
@@ -17620,15 +17838,15 @@
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
-      <c r="Z179" s="31"/>
+      <c r="Z179" s="32"/>
       <c r="AA179" s="4"/>
-      <c r="BE179" s="27"/>
+      <c r="BE179" s="28"/>
     </row>
     <row r="180" spans="1:57">
-      <c r="A180" s="26"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
-      <c r="F180" s="27"/>
+      <c r="A180" s="27"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="F180" s="28"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
@@ -17648,15 +17866,15 @@
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
       <c r="Y180" s="4"/>
-      <c r="Z180" s="31"/>
+      <c r="Z180" s="32"/>
       <c r="AA180" s="4"/>
-      <c r="BE180" s="27"/>
+      <c r="BE180" s="28"/>
     </row>
     <row r="181" spans="1:57">
-      <c r="A181" s="26"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="27"/>
-      <c r="F181" s="27"/>
+      <c r="A181" s="27"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="F181" s="28"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -17676,15 +17894,15 @@
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
-      <c r="Z181" s="31"/>
+      <c r="Z181" s="32"/>
       <c r="AA181" s="4"/>
-      <c r="BE181" s="27"/>
+      <c r="BE181" s="28"/>
     </row>
     <row r="182" spans="1:57">
-      <c r="A182" s="26"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="27"/>
-      <c r="F182" s="27"/>
+      <c r="A182" s="27"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+      <c r="F182" s="28"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
@@ -17704,15 +17922,15 @@
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
-      <c r="Z182" s="31"/>
+      <c r="Z182" s="32"/>
       <c r="AA182" s="4"/>
-      <c r="BE182" s="27"/>
+      <c r="BE182" s="28"/>
     </row>
     <row r="183" spans="1:57">
-      <c r="A183" s="26"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
-      <c r="F183" s="27"/>
+      <c r="A183" s="27"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="F183" s="28"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
@@ -17732,15 +17950,15 @@
       <c r="W183" s="4"/>
       <c r="X183" s="4"/>
       <c r="Y183" s="4"/>
-      <c r="Z183" s="31"/>
+      <c r="Z183" s="32"/>
       <c r="AA183" s="4"/>
-      <c r="BE183" s="27"/>
+      <c r="BE183" s="28"/>
     </row>
     <row r="184" spans="1:57">
-      <c r="A184" s="26"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="27"/>
-      <c r="F184" s="27"/>
+      <c r="A184" s="27"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+      <c r="F184" s="28"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
@@ -17760,15 +17978,15 @@
       <c r="W184" s="4"/>
       <c r="X184" s="4"/>
       <c r="Y184" s="4"/>
-      <c r="Z184" s="31"/>
+      <c r="Z184" s="32"/>
       <c r="AA184" s="4"/>
-      <c r="BE184" s="27"/>
+      <c r="BE184" s="28"/>
     </row>
     <row r="185" spans="1:57">
-      <c r="A185" s="26"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="27"/>
-      <c r="F185" s="27"/>
+      <c r="A185" s="27"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+      <c r="F185" s="28"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
@@ -17788,15 +18006,15 @@
       <c r="W185" s="4"/>
       <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
-      <c r="Z185" s="31"/>
+      <c r="Z185" s="32"/>
       <c r="AA185" s="4"/>
-      <c r="BE185" s="27"/>
+      <c r="BE185" s="28"/>
     </row>
     <row r="186" spans="1:57">
-      <c r="A186" s="26"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
-      <c r="F186" s="27"/>
+      <c r="A186" s="27"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
+      <c r="F186" s="28"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
@@ -17816,15 +18034,15 @@
       <c r="W186" s="4"/>
       <c r="X186" s="4"/>
       <c r="Y186" s="4"/>
-      <c r="Z186" s="31"/>
+      <c r="Z186" s="32"/>
       <c r="AA186" s="4"/>
-      <c r="BE186" s="27"/>
+      <c r="BE186" s="28"/>
     </row>
     <row r="187" spans="1:57">
-      <c r="A187" s="26"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
-      <c r="F187" s="27"/>
+      <c r="A187" s="27"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="F187" s="28"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -17844,15 +18062,15 @@
       <c r="W187" s="4"/>
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
-      <c r="Z187" s="31"/>
+      <c r="Z187" s="32"/>
       <c r="AA187" s="4"/>
-      <c r="BE187" s="27"/>
+      <c r="BE187" s="28"/>
     </row>
     <row r="188" spans="1:57">
-      <c r="A188" s="26"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="27"/>
-      <c r="F188" s="27"/>
+      <c r="A188" s="27"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="F188" s="28"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
@@ -17872,15 +18090,15 @@
       <c r="W188" s="4"/>
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
-      <c r="Z188" s="31"/>
+      <c r="Z188" s="32"/>
       <c r="AA188" s="4"/>
-      <c r="BE188" s="27"/>
+      <c r="BE188" s="28"/>
     </row>
     <row r="189" spans="1:57">
-      <c r="A189" s="26"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="27"/>
-      <c r="F189" s="27"/>
+      <c r="A189" s="27"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="F189" s="28"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
@@ -17900,15 +18118,15 @@
       <c r="W189" s="4"/>
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
-      <c r="Z189" s="31"/>
+      <c r="Z189" s="32"/>
       <c r="AA189" s="4"/>
-      <c r="BE189" s="27"/>
+      <c r="BE189" s="28"/>
     </row>
     <row r="190" spans="1:57">
-      <c r="A190" s="26"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
-      <c r="F190" s="27"/>
+      <c r="A190" s="27"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="F190" s="28"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
@@ -17928,15 +18146,15 @@
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
-      <c r="Z190" s="31"/>
+      <c r="Z190" s="32"/>
       <c r="AA190" s="4"/>
-      <c r="BE190" s="27"/>
+      <c r="BE190" s="28"/>
     </row>
     <row r="191" spans="1:57">
-      <c r="A191" s="26"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="27"/>
-      <c r="F191" s="27"/>
+      <c r="A191" s="27"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="28"/>
+      <c r="F191" s="28"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
@@ -17956,15 +18174,15 @@
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
-      <c r="Z191" s="31"/>
+      <c r="Z191" s="32"/>
       <c r="AA191" s="4"/>
-      <c r="BE191" s="27"/>
+      <c r="BE191" s="28"/>
     </row>
     <row r="192" spans="1:57">
-      <c r="A192" s="26"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="27"/>
-      <c r="F192" s="27"/>
+      <c r="A192" s="27"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="F192" s="28"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
@@ -17984,15 +18202,15 @@
       <c r="W192" s="4"/>
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
-      <c r="Z192" s="31"/>
+      <c r="Z192" s="32"/>
       <c r="AA192" s="4"/>
-      <c r="BE192" s="27"/>
+      <c r="BE192" s="28"/>
     </row>
     <row r="193" spans="1:57">
-      <c r="A193" s="26"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
-      <c r="F193" s="27"/>
+      <c r="A193" s="27"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="F193" s="28"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
@@ -18012,15 +18230,15 @@
       <c r="W193" s="4"/>
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
-      <c r="Z193" s="31"/>
+      <c r="Z193" s="32"/>
       <c r="AA193" s="4"/>
-      <c r="BE193" s="27"/>
+      <c r="BE193" s="28"/>
     </row>
     <row r="194" spans="1:57">
-      <c r="A194" s="26"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
-      <c r="F194" s="27"/>
+      <c r="A194" s="27"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
+      <c r="F194" s="28"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
@@ -18040,15 +18258,15 @@
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
-      <c r="Z194" s="31"/>
+      <c r="Z194" s="32"/>
       <c r="AA194" s="4"/>
-      <c r="BE194" s="27"/>
+      <c r="BE194" s="28"/>
     </row>
     <row r="195" spans="1:57">
-      <c r="A195" s="26"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
-      <c r="F195" s="27"/>
+      <c r="A195" s="27"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="28"/>
+      <c r="F195" s="28"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
@@ -18068,15 +18286,15 @@
       <c r="W195" s="4"/>
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
-      <c r="Z195" s="31"/>
+      <c r="Z195" s="32"/>
       <c r="AA195" s="4"/>
-      <c r="BE195" s="27"/>
+      <c r="BE195" s="28"/>
     </row>
     <row r="196" spans="1:57">
-      <c r="A196" s="26"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
-      <c r="F196" s="27"/>
+      <c r="A196" s="27"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="F196" s="28"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
@@ -18096,15 +18314,15 @@
       <c r="W196" s="4"/>
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
-      <c r="Z196" s="31"/>
+      <c r="Z196" s="32"/>
       <c r="AA196" s="4"/>
-      <c r="BE196" s="27"/>
+      <c r="BE196" s="28"/>
     </row>
     <row r="197" spans="1:57">
-      <c r="A197" s="26"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
-      <c r="F197" s="27"/>
+      <c r="A197" s="27"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="F197" s="28"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
@@ -18124,15 +18342,15 @@
       <c r="W197" s="4"/>
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
-      <c r="Z197" s="31"/>
+      <c r="Z197" s="32"/>
       <c r="AA197" s="4"/>
-      <c r="BE197" s="27"/>
+      <c r="BE197" s="28"/>
     </row>
     <row r="198" spans="1:57">
-      <c r="A198" s="26"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
-      <c r="F198" s="27"/>
+      <c r="A198" s="27"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="F198" s="28"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
@@ -18152,15 +18370,15 @@
       <c r="W198" s="4"/>
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
-      <c r="Z198" s="31"/>
+      <c r="Z198" s="32"/>
       <c r="AA198" s="4"/>
-      <c r="BE198" s="27"/>
+      <c r="BE198" s="28"/>
     </row>
     <row r="199" spans="1:57">
-      <c r="A199" s="26"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="F199" s="27"/>
+      <c r="A199" s="27"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+      <c r="F199" s="28"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
@@ -18180,15 +18398,15 @@
       <c r="W199" s="4"/>
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
-      <c r="Z199" s="31"/>
+      <c r="Z199" s="32"/>
       <c r="AA199" s="4"/>
-      <c r="BE199" s="27"/>
+      <c r="BE199" s="28"/>
     </row>
     <row r="200" spans="1:57">
-      <c r="A200" s="26"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
-      <c r="F200" s="27"/>
+      <c r="A200" s="27"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
+      <c r="F200" s="28"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
@@ -18208,15 +18426,15 @@
       <c r="W200" s="4"/>
       <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
-      <c r="Z200" s="31"/>
+      <c r="Z200" s="32"/>
       <c r="AA200" s="4"/>
-      <c r="BE200" s="27"/>
+      <c r="BE200" s="28"/>
     </row>
     <row r="201" spans="1:57">
-      <c r="A201" s="26"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="F201" s="27"/>
+      <c r="A201" s="27"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="F201" s="28"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
@@ -18236,15 +18454,15 @@
       <c r="W201" s="4"/>
       <c r="X201" s="4"/>
       <c r="Y201" s="4"/>
-      <c r="Z201" s="31"/>
+      <c r="Z201" s="32"/>
       <c r="AA201" s="4"/>
-      <c r="BE201" s="27"/>
+      <c r="BE201" s="28"/>
     </row>
     <row r="202" spans="1:57">
-      <c r="A202" s="26"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="F202" s="27"/>
+      <c r="A202" s="27"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="28"/>
+      <c r="F202" s="28"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
@@ -18264,15 +18482,15 @@
       <c r="W202" s="4"/>
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
-      <c r="Z202" s="31"/>
+      <c r="Z202" s="32"/>
       <c r="AA202" s="4"/>
-      <c r="BE202" s="27"/>
+      <c r="BE202" s="28"/>
     </row>
     <row r="203" spans="1:57">
-      <c r="A203" s="26"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="F203" s="27"/>
+      <c r="A203" s="27"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="F203" s="28"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
@@ -18292,15 +18510,15 @@
       <c r="W203" s="4"/>
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
-      <c r="Z203" s="31"/>
+      <c r="Z203" s="32"/>
       <c r="AA203" s="4"/>
-      <c r="BE203" s="27"/>
+      <c r="BE203" s="28"/>
     </row>
     <row r="204" spans="1:57">
-      <c r="A204" s="26"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="F204" s="27"/>
+      <c r="A204" s="27"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="F204" s="28"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
@@ -18320,15 +18538,15 @@
       <c r="W204" s="4"/>
       <c r="X204" s="4"/>
       <c r="Y204" s="4"/>
-      <c r="Z204" s="31"/>
+      <c r="Z204" s="32"/>
       <c r="AA204" s="4"/>
-      <c r="BE204" s="27"/>
+      <c r="BE204" s="28"/>
     </row>
     <row r="205" spans="1:57">
-      <c r="A205" s="26"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
-      <c r="F205" s="27"/>
+      <c r="A205" s="27"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="F205" s="28"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
@@ -18348,15 +18566,15 @@
       <c r="W205" s="4"/>
       <c r="X205" s="4"/>
       <c r="Y205" s="4"/>
-      <c r="Z205" s="31"/>
+      <c r="Z205" s="32"/>
       <c r="AA205" s="4"/>
-      <c r="BE205" s="27"/>
+      <c r="BE205" s="28"/>
     </row>
     <row r="206" spans="1:57">
-      <c r="A206" s="26"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
-      <c r="F206" s="27"/>
+      <c r="A206" s="27"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
+      <c r="F206" s="28"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
@@ -18376,15 +18594,15 @@
       <c r="W206" s="4"/>
       <c r="X206" s="4"/>
       <c r="Y206" s="4"/>
-      <c r="Z206" s="31"/>
+      <c r="Z206" s="32"/>
       <c r="AA206" s="4"/>
-      <c r="BE206" s="27"/>
+      <c r="BE206" s="28"/>
     </row>
     <row r="207" spans="1:57">
-      <c r="A207" s="26"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
-      <c r="F207" s="27"/>
+      <c r="A207" s="27"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="28"/>
+      <c r="F207" s="28"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
@@ -18404,9 +18622,9 @@
       <c r="W207" s="4"/>
       <c r="X207" s="4"/>
       <c r="Y207" s="4"/>
-      <c r="Z207" s="31"/>
+      <c r="Z207" s="32"/>
       <c r="AA207" s="4"/>
-      <c r="BE207" s="27"/>
+      <c r="BE207" s="28"/>
     </row>
     <row r="208" spans="1:57">
       <c r="A208" s="8"/>
@@ -18432,7 +18650,7 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
-      <c r="Z208" s="31"/>
+      <c r="Z208" s="32"/>
       <c r="AA208" s="3"/>
       <c r="BE208" s="3"/>
     </row>
@@ -18460,7 +18678,7 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
-      <c r="Z209" s="31"/>
+      <c r="Z209" s="32"/>
       <c r="AA209" s="3"/>
       <c r="BE209" s="3"/>
     </row>
@@ -18488,7 +18706,7 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
-      <c r="Z210" s="31"/>
+      <c r="Z210" s="32"/>
       <c r="AA210" s="3"/>
       <c r="BE210" s="3"/>
     </row>
@@ -18516,7 +18734,7 @@
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
-      <c r="Z211" s="31"/>
+      <c r="Z211" s="32"/>
       <c r="AA211" s="3"/>
       <c r="BE211" s="3"/>
     </row>
@@ -18544,7 +18762,7 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
-      <c r="Z212" s="31"/>
+      <c r="Z212" s="32"/>
       <c r="AA212" s="3"/>
       <c r="BE212" s="3"/>
     </row>
@@ -18572,7 +18790,7 @@
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
-      <c r="Z213" s="31"/>
+      <c r="Z213" s="32"/>
       <c r="AA213" s="3"/>
       <c r="BE213" s="3"/>
     </row>
@@ -18600,7 +18818,7 @@
       <c r="W214" s="3"/>
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
-      <c r="Z214" s="31"/>
+      <c r="Z214" s="32"/>
       <c r="AA214" s="3"/>
       <c r="BE214" s="3"/>
     </row>
@@ -18628,7 +18846,7 @@
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
-      <c r="Z215" s="31"/>
+      <c r="Z215" s="32"/>
       <c r="AA215" s="3"/>
       <c r="BE215" s="3"/>
     </row>
@@ -18656,7 +18874,7 @@
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
-      <c r="Z216" s="31"/>
+      <c r="Z216" s="32"/>
       <c r="AA216" s="3"/>
       <c r="BE216" s="3"/>
     </row>
@@ -18684,7 +18902,7 @@
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
-      <c r="Z217" s="31"/>
+      <c r="Z217" s="32"/>
       <c r="AA217" s="3"/>
       <c r="BE217" s="3"/>
     </row>
@@ -18712,7 +18930,7 @@
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
-      <c r="Z218" s="31"/>
+      <c r="Z218" s="32"/>
       <c r="AA218" s="3"/>
       <c r="BE218" s="3"/>
     </row>
@@ -18740,7 +18958,7 @@
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
-      <c r="Z219" s="31"/>
+      <c r="Z219" s="32"/>
       <c r="AA219" s="3"/>
       <c r="BE219" s="3"/>
     </row>
@@ -18768,7 +18986,7 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
-      <c r="Z220" s="31"/>
+      <c r="Z220" s="32"/>
       <c r="AA220" s="3"/>
       <c r="BE220" s="3"/>
     </row>
@@ -18796,7 +19014,7 @@
       <c r="W221" s="3"/>
       <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
-      <c r="Z221" s="31"/>
+      <c r="Z221" s="32"/>
       <c r="AA221" s="3"/>
       <c r="BE221" s="3"/>
     </row>
@@ -18824,7 +19042,7 @@
       <c r="W222" s="3"/>
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
-      <c r="Z222" s="31"/>
+      <c r="Z222" s="32"/>
       <c r="AA222" s="3"/>
       <c r="BE222" s="3"/>
     </row>
@@ -18852,7 +19070,7 @@
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
-      <c r="Z223" s="31"/>
+      <c r="Z223" s="32"/>
       <c r="AA223" s="3"/>
       <c r="BE223" s="3"/>
     </row>
@@ -18880,7 +19098,7 @@
       <c r="W224" s="3"/>
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
-      <c r="Z224" s="31"/>
+      <c r="Z224" s="32"/>
       <c r="AA224" s="3"/>
       <c r="BE224" s="3"/>
     </row>
@@ -18908,7 +19126,7 @@
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
-      <c r="Z225" s="31"/>
+      <c r="Z225" s="32"/>
       <c r="AA225" s="3"/>
       <c r="BE225" s="3"/>
     </row>
@@ -18936,7 +19154,7 @@
       <c r="W226" s="3"/>
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
-      <c r="Z226" s="31"/>
+      <c r="Z226" s="32"/>
       <c r="AA226" s="3"/>
       <c r="BE226" s="3"/>
     </row>
@@ -18964,7 +19182,7 @@
       <c r="W227" s="3"/>
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
-      <c r="Z227" s="31"/>
+      <c r="Z227" s="32"/>
       <c r="AA227" s="3"/>
       <c r="BE227" s="3"/>
     </row>
@@ -18992,7 +19210,7 @@
       <c r="W228" s="3"/>
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
-      <c r="Z228" s="31"/>
+      <c r="Z228" s="32"/>
       <c r="AA228" s="3"/>
       <c r="BE228" s="3"/>
     </row>
@@ -19020,7 +19238,7 @@
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
-      <c r="Z229" s="31"/>
+      <c r="Z229" s="32"/>
       <c r="AA229" s="3"/>
       <c r="BE229" s="3"/>
     </row>
@@ -19048,7 +19266,7 @@
       <c r="W230" s="3"/>
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
-      <c r="Z230" s="31"/>
+      <c r="Z230" s="32"/>
       <c r="AA230" s="3"/>
       <c r="BE230" s="3"/>
     </row>
@@ -19076,7 +19294,7 @@
       <c r="W231" s="3"/>
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
-      <c r="Z231" s="31"/>
+      <c r="Z231" s="32"/>
       <c r="AA231" s="3"/>
       <c r="BE231" s="3"/>
     </row>
@@ -19104,7 +19322,7 @@
       <c r="W232" s="3"/>
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
-      <c r="Z232" s="31"/>
+      <c r="Z232" s="32"/>
       <c r="AA232" s="3"/>
       <c r="BE232" s="3"/>
     </row>
@@ -19132,7 +19350,7 @@
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
-      <c r="Z233" s="31"/>
+      <c r="Z233" s="32"/>
       <c r="AA233" s="3"/>
       <c r="BE233" s="3"/>
     </row>
@@ -19160,7 +19378,7 @@
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
-      <c r="Z234" s="31"/>
+      <c r="Z234" s="32"/>
       <c r="AA234" s="3"/>
       <c r="BE234" s="3"/>
     </row>
@@ -19188,7 +19406,7 @@
       <c r="W235" s="3"/>
       <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
-      <c r="Z235" s="31"/>
+      <c r="Z235" s="32"/>
       <c r="AA235" s="3"/>
       <c r="BE235" s="3"/>
     </row>
@@ -19216,7 +19434,7 @@
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
-      <c r="Z236" s="31"/>
+      <c r="Z236" s="32"/>
       <c r="AA236" s="3"/>
       <c r="BE236" s="3"/>
     </row>
@@ -19244,7 +19462,7 @@
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
-      <c r="Z237" s="31"/>
+      <c r="Z237" s="32"/>
       <c r="AA237" s="3"/>
       <c r="BE237" s="3"/>
     </row>
@@ -19272,7 +19490,7 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
-      <c r="Z238" s="31"/>
+      <c r="Z238" s="32"/>
       <c r="AA238" s="3"/>
       <c r="BE238" s="3"/>
     </row>
@@ -19300,7 +19518,7 @@
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
-      <c r="Z239" s="31"/>
+      <c r="Z239" s="32"/>
       <c r="AA239" s="3"/>
       <c r="BE239" s="3"/>
     </row>
@@ -19328,7 +19546,7 @@
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
-      <c r="Z240" s="31"/>
+      <c r="Z240" s="32"/>
       <c r="AA240" s="3"/>
       <c r="BE240" s="3"/>
     </row>
@@ -19356,7 +19574,7 @@
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
-      <c r="Z241" s="31"/>
+      <c r="Z241" s="32"/>
       <c r="AA241" s="3"/>
       <c r="BE241" s="3"/>
     </row>
@@ -19384,7 +19602,7 @@
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
-      <c r="Z242" s="31"/>
+      <c r="Z242" s="32"/>
       <c r="AA242" s="3"/>
       <c r="BE242" s="3"/>
     </row>
@@ -19412,7 +19630,7 @@
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
-      <c r="Z243" s="31"/>
+      <c r="Z243" s="32"/>
       <c r="AA243" s="3"/>
       <c r="BE243" s="3"/>
     </row>
@@ -19440,7 +19658,7 @@
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
-      <c r="Z244" s="31"/>
+      <c r="Z244" s="32"/>
       <c r="AA244" s="3"/>
       <c r="BE244" s="3"/>
     </row>
@@ -19468,7 +19686,7 @@
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
-      <c r="Z245" s="31"/>
+      <c r="Z245" s="32"/>
       <c r="AA245" s="3"/>
       <c r="BE245" s="3"/>
     </row>
@@ -19496,7 +19714,7 @@
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
-      <c r="Z246" s="31"/>
+      <c r="Z246" s="32"/>
       <c r="AA246" s="3"/>
       <c r="BE246" s="3"/>
     </row>
@@ -19524,7 +19742,7 @@
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
-      <c r="Z247" s="31"/>
+      <c r="Z247" s="32"/>
       <c r="AA247" s="3"/>
       <c r="BE247" s="3"/>
     </row>
@@ -19552,7 +19770,7 @@
       <c r="W248" s="3"/>
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
-      <c r="Z248" s="31"/>
+      <c r="Z248" s="32"/>
       <c r="AA248" s="3"/>
       <c r="BE248" s="3"/>
     </row>
@@ -19580,7 +19798,7 @@
       <c r="W249" s="3"/>
       <c r="X249" s="3"/>
       <c r="Y249" s="3"/>
-      <c r="Z249" s="31"/>
+      <c r="Z249" s="32"/>
       <c r="AA249" s="3"/>
       <c r="BE249" s="3"/>
     </row>
@@ -19608,7 +19826,7 @@
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
-      <c r="Z250" s="31"/>
+      <c r="Z250" s="32"/>
       <c r="AA250" s="3"/>
       <c r="BE250" s="3"/>
     </row>
@@ -19636,7 +19854,7 @@
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
-      <c r="Z251" s="31"/>
+      <c r="Z251" s="32"/>
       <c r="AA251" s="3"/>
       <c r="BE251" s="3"/>
     </row>
@@ -19664,7 +19882,7 @@
       <c r="W252" s="3"/>
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
-      <c r="Z252" s="31"/>
+      <c r="Z252" s="32"/>
       <c r="AA252" s="3"/>
       <c r="BE252" s="3"/>
     </row>
@@ -19692,7 +19910,7 @@
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
-      <c r="Z253" s="31"/>
+      <c r="Z253" s="32"/>
       <c r="AA253" s="3"/>
       <c r="BE253" s="3"/>
     </row>
@@ -19720,7 +19938,7 @@
       <c r="W254" s="3"/>
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
-      <c r="Z254" s="31"/>
+      <c r="Z254" s="32"/>
       <c r="AA254" s="3"/>
       <c r="BE254" s="3"/>
     </row>
@@ -19748,7 +19966,7 @@
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
       <c r="Y255" s="3"/>
-      <c r="Z255" s="31"/>
+      <c r="Z255" s="32"/>
       <c r="AA255" s="3"/>
       <c r="BE255" s="3"/>
     </row>
@@ -19776,7 +19994,7 @@
       <c r="W256" s="3"/>
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
-      <c r="Z256" s="31"/>
+      <c r="Z256" s="32"/>
       <c r="AA256" s="3"/>
       <c r="BE256" s="3"/>
     </row>
@@ -19804,7 +20022,7 @@
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
-      <c r="Z257" s="31"/>
+      <c r="Z257" s="32"/>
       <c r="AA257" s="3"/>
       <c r="BE257" s="3"/>
     </row>
@@ -19832,7 +20050,7 @@
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
-      <c r="Z258" s="31"/>
+      <c r="Z258" s="32"/>
       <c r="AA258" s="3"/>
       <c r="BE258" s="3"/>
     </row>
@@ -19860,7 +20078,7 @@
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
-      <c r="Z259" s="31"/>
+      <c r="Z259" s="32"/>
       <c r="AA259" s="3"/>
       <c r="BE259" s="3"/>
     </row>
@@ -19888,7 +20106,7 @@
       <c r="W260" s="3"/>
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
-      <c r="Z260" s="31"/>
+      <c r="Z260" s="32"/>
       <c r="AA260" s="3"/>
       <c r="BE260" s="3"/>
     </row>
@@ -19916,7 +20134,7 @@
       <c r="W261" s="3"/>
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
-      <c r="Z261" s="31"/>
+      <c r="Z261" s="32"/>
       <c r="AA261" s="3"/>
       <c r="BE261" s="3"/>
     </row>
@@ -19944,7 +20162,7 @@
       <c r="W262" s="3"/>
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
-      <c r="Z262" s="31"/>
+      <c r="Z262" s="32"/>
       <c r="AA262" s="3"/>
       <c r="BE262" s="3"/>
     </row>
@@ -19972,7 +20190,7 @@
       <c r="W263" s="3"/>
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
-      <c r="Z263" s="31"/>
+      <c r="Z263" s="32"/>
       <c r="AA263" s="3"/>
       <c r="BE263" s="3"/>
     </row>
@@ -20000,7 +20218,7 @@
       <c r="W264" s="3"/>
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
-      <c r="Z264" s="31"/>
+      <c r="Z264" s="32"/>
       <c r="AA264" s="3"/>
       <c r="BE264" s="3"/>
     </row>
@@ -20028,7 +20246,7 @@
       <c r="W265" s="3"/>
       <c r="X265" s="3"/>
       <c r="Y265" s="3"/>
-      <c r="Z265" s="31"/>
+      <c r="Z265" s="32"/>
       <c r="AA265" s="3"/>
       <c r="BE265" s="3"/>
     </row>
@@ -20056,7 +20274,7 @@
       <c r="W266" s="3"/>
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
-      <c r="Z266" s="31"/>
+      <c r="Z266" s="32"/>
       <c r="AA266" s="3"/>
       <c r="BE266" s="3"/>
     </row>
@@ -20084,7 +20302,7 @@
       <c r="W267" s="3"/>
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
-      <c r="Z267" s="31"/>
+      <c r="Z267" s="32"/>
       <c r="AA267" s="3"/>
       <c r="BE267" s="3"/>
     </row>
@@ -20112,7 +20330,7 @@
       <c r="W268" s="3"/>
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
-      <c r="Z268" s="31"/>
+      <c r="Z268" s="32"/>
       <c r="AA268" s="3"/>
       <c r="BE268" s="3"/>
     </row>
@@ -20140,7 +20358,7 @@
       <c r="W269" s="3"/>
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
-      <c r="Z269" s="31"/>
+      <c r="Z269" s="32"/>
       <c r="AA269" s="3"/>
       <c r="BE269" s="3"/>
     </row>
@@ -20168,7 +20386,7 @@
       <c r="W270" s="3"/>
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
-      <c r="Z270" s="31"/>
+      <c r="Z270" s="32"/>
       <c r="AA270" s="3"/>
       <c r="BE270" s="3"/>
     </row>
@@ -20196,7 +20414,7 @@
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
-      <c r="Z271" s="31"/>
+      <c r="Z271" s="32"/>
       <c r="AA271" s="3"/>
       <c r="BE271" s="3"/>
     </row>
@@ -20224,7 +20442,7 @@
       <c r="W272" s="3"/>
       <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
-      <c r="Z272" s="31"/>
+      <c r="Z272" s="32"/>
       <c r="AA272" s="3"/>
       <c r="BE272" s="3"/>
     </row>
@@ -20252,7 +20470,7 @@
       <c r="W273" s="3"/>
       <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
-      <c r="Z273" s="31"/>
+      <c r="Z273" s="32"/>
       <c r="AA273" s="3"/>
       <c r="BE273" s="3"/>
     </row>
@@ -20280,7 +20498,7 @@
       <c r="W274" s="3"/>
       <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
-      <c r="Z274" s="31"/>
+      <c r="Z274" s="32"/>
       <c r="AA274" s="3"/>
       <c r="BE274" s="3"/>
     </row>
@@ -20308,7 +20526,7 @@
       <c r="W275" s="3"/>
       <c r="X275" s="3"/>
       <c r="Y275" s="3"/>
-      <c r="Z275" s="31"/>
+      <c r="Z275" s="32"/>
       <c r="AA275" s="3"/>
       <c r="BE275" s="3"/>
     </row>
@@ -20336,15 +20554,15 @@
       <c r="W276" s="3"/>
       <c r="X276" s="3"/>
       <c r="Y276" s="3"/>
-      <c r="Z276" s="31"/>
+      <c r="Z276" s="32"/>
       <c r="AA276" s="3"/>
       <c r="BE276" s="3"/>
     </row>
     <row r="277" spans="1:57">
-      <c r="A277" s="26"/>
-      <c r="B277" s="27"/>
-      <c r="C277" s="27"/>
-      <c r="F277" s="27"/>
+      <c r="A277" s="27"/>
+      <c r="B277" s="28"/>
+      <c r="C277" s="28"/>
+      <c r="F277" s="28"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
@@ -20364,15 +20582,15 @@
       <c r="W277" s="4"/>
       <c r="X277" s="4"/>
       <c r="Y277" s="4"/>
-      <c r="Z277" s="31"/>
+      <c r="Z277" s="32"/>
       <c r="AA277" s="4"/>
-      <c r="BE277" s="27"/>
+      <c r="BE277" s="28"/>
     </row>
     <row r="278" spans="1:57">
-      <c r="A278" s="26"/>
-      <c r="B278" s="27"/>
-      <c r="C278" s="27"/>
-      <c r="F278" s="33"/>
+      <c r="A278" s="27"/>
+      <c r="B278" s="28"/>
+      <c r="C278" s="28"/>
+      <c r="F278" s="34"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
@@ -20392,15 +20610,15 @@
       <c r="W278" s="4"/>
       <c r="X278" s="4"/>
       <c r="Y278" s="4"/>
-      <c r="Z278" s="31"/>
+      <c r="Z278" s="32"/>
       <c r="AA278" s="4"/>
-      <c r="BE278" s="33"/>
+      <c r="BE278" s="34"/>
     </row>
     <row r="279" spans="1:57">
-      <c r="A279" s="26"/>
-      <c r="B279" s="27"/>
-      <c r="C279" s="27"/>
-      <c r="F279" s="33"/>
+      <c r="A279" s="27"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="28"/>
+      <c r="F279" s="34"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
@@ -20420,15 +20638,15 @@
       <c r="W279" s="4"/>
       <c r="X279" s="4"/>
       <c r="Y279" s="4"/>
-      <c r="Z279" s="31"/>
+      <c r="Z279" s="32"/>
       <c r="AA279" s="4"/>
-      <c r="BE279" s="33"/>
+      <c r="BE279" s="34"/>
     </row>
     <row r="280" spans="1:57">
-      <c r="A280" s="26"/>
-      <c r="B280" s="27"/>
-      <c r="C280" s="27"/>
-      <c r="F280" s="27"/>
+      <c r="A280" s="27"/>
+      <c r="B280" s="28"/>
+      <c r="C280" s="28"/>
+      <c r="F280" s="28"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
@@ -20448,15 +20666,15 @@
       <c r="W280" s="4"/>
       <c r="X280" s="4"/>
       <c r="Y280" s="4"/>
-      <c r="Z280" s="31"/>
+      <c r="Z280" s="32"/>
       <c r="AA280" s="4"/>
-      <c r="BE280" s="27"/>
+      <c r="BE280" s="28"/>
     </row>
     <row r="281" spans="1:57">
-      <c r="A281" s="26"/>
-      <c r="B281" s="27"/>
-      <c r="C281" s="27"/>
-      <c r="F281" s="27"/>
+      <c r="A281" s="27"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="28"/>
+      <c r="F281" s="28"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
@@ -20476,15 +20694,15 @@
       <c r="W281" s="4"/>
       <c r="X281" s="4"/>
       <c r="Y281" s="4"/>
-      <c r="Z281" s="31"/>
+      <c r="Z281" s="32"/>
       <c r="AA281" s="4"/>
-      <c r="BE281" s="27"/>
+      <c r="BE281" s="28"/>
     </row>
     <row r="282" spans="1:57">
-      <c r="A282" s="26"/>
-      <c r="B282" s="27"/>
-      <c r="C282" s="27"/>
-      <c r="F282" s="27"/>
+      <c r="A282" s="27"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="28"/>
+      <c r="F282" s="28"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
@@ -20504,15 +20722,15 @@
       <c r="W282" s="4"/>
       <c r="X282" s="4"/>
       <c r="Y282" s="4"/>
-      <c r="Z282" s="31"/>
+      <c r="Z282" s="32"/>
       <c r="AA282" s="4"/>
-      <c r="BE282" s="27"/>
+      <c r="BE282" s="28"/>
     </row>
     <row r="283" spans="1:57">
-      <c r="A283" s="26"/>
-      <c r="B283" s="27"/>
-      <c r="C283" s="27"/>
-      <c r="F283" s="27"/>
+      <c r="A283" s="27"/>
+      <c r="B283" s="28"/>
+      <c r="C283" s="28"/>
+      <c r="F283" s="28"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
@@ -20532,15 +20750,15 @@
       <c r="W283" s="4"/>
       <c r="X283" s="4"/>
       <c r="Y283" s="4"/>
-      <c r="Z283" s="31"/>
+      <c r="Z283" s="32"/>
       <c r="AA283" s="4"/>
-      <c r="BE283" s="27"/>
+      <c r="BE283" s="28"/>
     </row>
     <row r="284" spans="1:57">
-      <c r="A284" s="26"/>
-      <c r="B284" s="27"/>
-      <c r="C284" s="27"/>
-      <c r="F284" s="27"/>
+      <c r="A284" s="27"/>
+      <c r="B284" s="28"/>
+      <c r="C284" s="28"/>
+      <c r="F284" s="28"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
@@ -20560,15 +20778,15 @@
       <c r="W284" s="4"/>
       <c r="X284" s="4"/>
       <c r="Y284" s="4"/>
-      <c r="Z284" s="31"/>
+      <c r="Z284" s="32"/>
       <c r="AA284" s="4"/>
-      <c r="BE284" s="27"/>
+      <c r="BE284" s="28"/>
     </row>
     <row r="285" spans="1:57">
-      <c r="A285" s="26"/>
-      <c r="B285" s="27"/>
-      <c r="C285" s="27"/>
-      <c r="F285" s="27"/>
+      <c r="A285" s="27"/>
+      <c r="B285" s="28"/>
+      <c r="C285" s="28"/>
+      <c r="F285" s="28"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
@@ -20588,15 +20806,15 @@
       <c r="W285" s="4"/>
       <c r="X285" s="4"/>
       <c r="Y285" s="4"/>
-      <c r="Z285" s="31"/>
+      <c r="Z285" s="32"/>
       <c r="AA285" s="4"/>
-      <c r="BE285" s="27"/>
+      <c r="BE285" s="28"/>
     </row>
     <row r="286" spans="1:57">
-      <c r="A286" s="26"/>
-      <c r="B286" s="27"/>
-      <c r="C286" s="27"/>
-      <c r="F286" s="27"/>
+      <c r="A286" s="27"/>
+      <c r="B286" s="28"/>
+      <c r="C286" s="28"/>
+      <c r="F286" s="28"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
@@ -20616,15 +20834,15 @@
       <c r="W286" s="4"/>
       <c r="X286" s="4"/>
       <c r="Y286" s="4"/>
-      <c r="Z286" s="31"/>
+      <c r="Z286" s="32"/>
       <c r="AA286" s="4"/>
-      <c r="BE286" s="27"/>
+      <c r="BE286" s="28"/>
     </row>
     <row r="287" spans="1:57">
-      <c r="A287" s="26"/>
-      <c r="B287" s="27"/>
-      <c r="C287" s="27"/>
-      <c r="F287" s="27"/>
+      <c r="A287" s="27"/>
+      <c r="B287" s="28"/>
+      <c r="C287" s="28"/>
+      <c r="F287" s="28"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
@@ -20644,15 +20862,15 @@
       <c r="W287" s="4"/>
       <c r="X287" s="4"/>
       <c r="Y287" s="4"/>
-      <c r="Z287" s="31"/>
+      <c r="Z287" s="32"/>
       <c r="AA287" s="4"/>
-      <c r="BE287" s="27"/>
+      <c r="BE287" s="28"/>
     </row>
     <row r="288" spans="1:57">
-      <c r="A288" s="26"/>
-      <c r="B288" s="27"/>
-      <c r="C288" s="27"/>
-      <c r="F288" s="27"/>
+      <c r="A288" s="27"/>
+      <c r="B288" s="28"/>
+      <c r="C288" s="28"/>
+      <c r="F288" s="28"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
@@ -20672,15 +20890,15 @@
       <c r="W288" s="4"/>
       <c r="X288" s="4"/>
       <c r="Y288" s="4"/>
-      <c r="Z288" s="31"/>
+      <c r="Z288" s="32"/>
       <c r="AA288" s="4"/>
-      <c r="BE288" s="27"/>
+      <c r="BE288" s="28"/>
     </row>
     <row r="289" spans="1:57">
-      <c r="A289" s="26"/>
-      <c r="B289" s="27"/>
-      <c r="C289" s="27"/>
-      <c r="F289" s="27"/>
+      <c r="A289" s="27"/>
+      <c r="B289" s="28"/>
+      <c r="C289" s="28"/>
+      <c r="F289" s="28"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
@@ -20700,15 +20918,15 @@
       <c r="W289" s="4"/>
       <c r="X289" s="4"/>
       <c r="Y289" s="4"/>
-      <c r="Z289" s="31"/>
+      <c r="Z289" s="32"/>
       <c r="AA289" s="4"/>
-      <c r="BE289" s="27"/>
+      <c r="BE289" s="28"/>
     </row>
     <row r="290" spans="1:57">
-      <c r="A290" s="26"/>
-      <c r="B290" s="27"/>
-      <c r="C290" s="27"/>
-      <c r="F290" s="27"/>
+      <c r="A290" s="27"/>
+      <c r="B290" s="28"/>
+      <c r="C290" s="28"/>
+      <c r="F290" s="28"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
@@ -20728,15 +20946,15 @@
       <c r="W290" s="4"/>
       <c r="X290" s="4"/>
       <c r="Y290" s="4"/>
-      <c r="Z290" s="31"/>
+      <c r="Z290" s="32"/>
       <c r="AA290" s="4"/>
-      <c r="BE290" s="27"/>
+      <c r="BE290" s="28"/>
     </row>
     <row r="291" spans="1:57">
-      <c r="A291" s="26"/>
-      <c r="B291" s="27"/>
-      <c r="C291" s="27"/>
-      <c r="F291" s="27"/>
+      <c r="A291" s="27"/>
+      <c r="B291" s="28"/>
+      <c r="C291" s="28"/>
+      <c r="F291" s="28"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
@@ -20756,15 +20974,15 @@
       <c r="W291" s="4"/>
       <c r="X291" s="4"/>
       <c r="Y291" s="4"/>
-      <c r="Z291" s="31"/>
+      <c r="Z291" s="32"/>
       <c r="AA291" s="4"/>
-      <c r="BE291" s="27"/>
+      <c r="BE291" s="28"/>
     </row>
     <row r="292" spans="1:57">
-      <c r="A292" s="26"/>
-      <c r="B292" s="27"/>
-      <c r="C292" s="27"/>
-      <c r="F292" s="27"/>
+      <c r="A292" s="27"/>
+      <c r="B292" s="28"/>
+      <c r="C292" s="28"/>
+      <c r="F292" s="28"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
@@ -20784,15 +21002,15 @@
       <c r="W292" s="4"/>
       <c r="X292" s="4"/>
       <c r="Y292" s="4"/>
-      <c r="Z292" s="31"/>
+      <c r="Z292" s="32"/>
       <c r="AA292" s="4"/>
-      <c r="BE292" s="27"/>
+      <c r="BE292" s="28"/>
     </row>
     <row r="293" spans="1:57">
-      <c r="A293" s="26"/>
-      <c r="B293" s="27"/>
-      <c r="C293" s="27"/>
-      <c r="F293" s="27"/>
+      <c r="A293" s="27"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="28"/>
+      <c r="F293" s="28"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
@@ -20812,15 +21030,15 @@
       <c r="W293" s="4"/>
       <c r="X293" s="4"/>
       <c r="Y293" s="4"/>
-      <c r="Z293" s="31"/>
+      <c r="Z293" s="32"/>
       <c r="AA293" s="4"/>
-      <c r="BE293" s="27"/>
+      <c r="BE293" s="28"/>
     </row>
     <row r="294" spans="1:57">
-      <c r="A294" s="26"/>
-      <c r="B294" s="27"/>
-      <c r="C294" s="27"/>
-      <c r="F294" s="27"/>
+      <c r="A294" s="27"/>
+      <c r="B294" s="28"/>
+      <c r="C294" s="28"/>
+      <c r="F294" s="28"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
@@ -20840,15 +21058,15 @@
       <c r="W294" s="4"/>
       <c r="X294" s="4"/>
       <c r="Y294" s="4"/>
-      <c r="Z294" s="31"/>
+      <c r="Z294" s="32"/>
       <c r="AA294" s="4"/>
-      <c r="BE294" s="27"/>
+      <c r="BE294" s="28"/>
     </row>
     <row r="295" spans="1:57">
-      <c r="A295" s="26"/>
-      <c r="B295" s="27"/>
-      <c r="C295" s="27"/>
-      <c r="F295" s="27"/>
+      <c r="A295" s="27"/>
+      <c r="B295" s="28"/>
+      <c r="C295" s="28"/>
+      <c r="F295" s="28"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
@@ -20868,15 +21086,15 @@
       <c r="W295" s="4"/>
       <c r="X295" s="4"/>
       <c r="Y295" s="4"/>
-      <c r="Z295" s="31"/>
+      <c r="Z295" s="32"/>
       <c r="AA295" s="4"/>
-      <c r="BE295" s="27"/>
+      <c r="BE295" s="28"/>
     </row>
     <row r="296" spans="1:57">
-      <c r="A296" s="26"/>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
-      <c r="F296" s="27"/>
+      <c r="A296" s="27"/>
+      <c r="B296" s="28"/>
+      <c r="C296" s="28"/>
+      <c r="F296" s="28"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
@@ -20896,15 +21114,15 @@
       <c r="W296" s="4"/>
       <c r="X296" s="4"/>
       <c r="Y296" s="4"/>
-      <c r="Z296" s="31"/>
+      <c r="Z296" s="32"/>
       <c r="AA296" s="4"/>
-      <c r="BE296" s="27"/>
+      <c r="BE296" s="28"/>
     </row>
     <row r="297" spans="1:57">
-      <c r="A297" s="26"/>
-      <c r="B297" s="27"/>
-      <c r="C297" s="27"/>
-      <c r="F297" s="27"/>
+      <c r="A297" s="27"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="28"/>
+      <c r="F297" s="28"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
@@ -20924,15 +21142,15 @@
       <c r="W297" s="4"/>
       <c r="X297" s="4"/>
       <c r="Y297" s="4"/>
-      <c r="Z297" s="31"/>
+      <c r="Z297" s="32"/>
       <c r="AA297" s="4"/>
-      <c r="BE297" s="27"/>
+      <c r="BE297" s="28"/>
     </row>
     <row r="298" spans="1:57">
-      <c r="A298" s="26"/>
-      <c r="B298" s="27"/>
-      <c r="C298" s="27"/>
-      <c r="F298" s="27"/>
+      <c r="A298" s="27"/>
+      <c r="B298" s="28"/>
+      <c r="C298" s="28"/>
+      <c r="F298" s="28"/>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
@@ -20952,15 +21170,15 @@
       <c r="W298" s="4"/>
       <c r="X298" s="4"/>
       <c r="Y298" s="4"/>
-      <c r="Z298" s="31"/>
+      <c r="Z298" s="32"/>
       <c r="AA298" s="4"/>
-      <c r="BE298" s="27"/>
+      <c r="BE298" s="28"/>
     </row>
     <row r="299" spans="1:57">
-      <c r="A299" s="26"/>
-      <c r="B299" s="27"/>
-      <c r="C299" s="27"/>
-      <c r="F299" s="27"/>
+      <c r="A299" s="27"/>
+      <c r="B299" s="28"/>
+      <c r="C299" s="28"/>
+      <c r="F299" s="28"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
@@ -20980,15 +21198,15 @@
       <c r="W299" s="4"/>
       <c r="X299" s="4"/>
       <c r="Y299" s="4"/>
-      <c r="Z299" s="31"/>
+      <c r="Z299" s="32"/>
       <c r="AA299" s="4"/>
-      <c r="BE299" s="27"/>
+      <c r="BE299" s="28"/>
     </row>
     <row r="300" spans="1:57">
-      <c r="A300" s="26"/>
-      <c r="B300" s="27"/>
-      <c r="C300" s="27"/>
-      <c r="F300" s="27"/>
+      <c r="A300" s="27"/>
+      <c r="B300" s="28"/>
+      <c r="C300" s="28"/>
+      <c r="F300" s="28"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
@@ -21008,15 +21226,15 @@
       <c r="W300" s="4"/>
       <c r="X300" s="4"/>
       <c r="Y300" s="4"/>
-      <c r="Z300" s="31"/>
+      <c r="Z300" s="32"/>
       <c r="AA300" s="4"/>
-      <c r="BE300" s="27"/>
+      <c r="BE300" s="28"/>
     </row>
     <row r="301" spans="1:57">
-      <c r="A301" s="26"/>
-      <c r="B301" s="27"/>
-      <c r="C301" s="27"/>
-      <c r="F301" s="27"/>
+      <c r="A301" s="27"/>
+      <c r="B301" s="28"/>
+      <c r="C301" s="28"/>
+      <c r="F301" s="28"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
@@ -21036,15 +21254,15 @@
       <c r="W301" s="4"/>
       <c r="X301" s="4"/>
       <c r="Y301" s="4"/>
-      <c r="Z301" s="31"/>
+      <c r="Z301" s="32"/>
       <c r="AA301" s="4"/>
-      <c r="BE301" s="27"/>
+      <c r="BE301" s="28"/>
     </row>
     <row r="302" spans="1:57">
-      <c r="A302" s="26"/>
-      <c r="B302" s="27"/>
-      <c r="C302" s="27"/>
-      <c r="F302" s="27"/>
+      <c r="A302" s="27"/>
+      <c r="B302" s="28"/>
+      <c r="C302" s="28"/>
+      <c r="F302" s="28"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
@@ -21064,15 +21282,15 @@
       <c r="W302" s="4"/>
       <c r="X302" s="4"/>
       <c r="Y302" s="4"/>
-      <c r="Z302" s="31"/>
+      <c r="Z302" s="32"/>
       <c r="AA302" s="4"/>
-      <c r="BE302" s="27"/>
+      <c r="BE302" s="28"/>
     </row>
     <row r="303" spans="1:57">
-      <c r="A303" s="26"/>
-      <c r="B303" s="27"/>
-      <c r="C303" s="27"/>
-      <c r="F303" s="27"/>
+      <c r="A303" s="27"/>
+      <c r="B303" s="28"/>
+      <c r="C303" s="28"/>
+      <c r="F303" s="28"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
@@ -21092,15 +21310,15 @@
       <c r="W303" s="4"/>
       <c r="X303" s="4"/>
       <c r="Y303" s="4"/>
-      <c r="Z303" s="31"/>
+      <c r="Z303" s="32"/>
       <c r="AA303" s="4"/>
-      <c r="BE303" s="27"/>
+      <c r="BE303" s="28"/>
     </row>
     <row r="304" spans="1:57">
-      <c r="A304" s="26"/>
-      <c r="B304" s="27"/>
-      <c r="C304" s="27"/>
-      <c r="F304" s="27"/>
+      <c r="A304" s="27"/>
+      <c r="B304" s="28"/>
+      <c r="C304" s="28"/>
+      <c r="F304" s="28"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
@@ -21120,15 +21338,15 @@
       <c r="W304" s="4"/>
       <c r="X304" s="4"/>
       <c r="Y304" s="4"/>
-      <c r="Z304" s="31"/>
+      <c r="Z304" s="32"/>
       <c r="AA304" s="4"/>
-      <c r="BE304" s="27"/>
+      <c r="BE304" s="28"/>
     </row>
     <row r="305" spans="1:57">
-      <c r="A305" s="26"/>
-      <c r="B305" s="27"/>
-      <c r="C305" s="27"/>
-      <c r="F305" s="27"/>
+      <c r="A305" s="27"/>
+      <c r="B305" s="28"/>
+      <c r="C305" s="28"/>
+      <c r="F305" s="28"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
@@ -21148,15 +21366,15 @@
       <c r="W305" s="4"/>
       <c r="X305" s="4"/>
       <c r="Y305" s="4"/>
-      <c r="Z305" s="31"/>
+      <c r="Z305" s="32"/>
       <c r="AA305" s="4"/>
-      <c r="BE305" s="27"/>
+      <c r="BE305" s="28"/>
     </row>
     <row r="306" spans="1:57">
-      <c r="A306" s="26"/>
-      <c r="B306" s="27"/>
-      <c r="C306" s="27"/>
-      <c r="F306" s="33"/>
+      <c r="A306" s="27"/>
+      <c r="B306" s="28"/>
+      <c r="C306" s="28"/>
+      <c r="F306" s="34"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
@@ -21176,15 +21394,15 @@
       <c r="W306" s="4"/>
       <c r="X306" s="4"/>
       <c r="Y306" s="4"/>
-      <c r="Z306" s="31"/>
+      <c r="Z306" s="32"/>
       <c r="AA306" s="4"/>
-      <c r="BE306" s="33"/>
+      <c r="BE306" s="34"/>
     </row>
     <row r="307" spans="1:57">
-      <c r="A307" s="26"/>
-      <c r="B307" s="27"/>
-      <c r="C307" s="27"/>
-      <c r="F307" s="27"/>
+      <c r="A307" s="27"/>
+      <c r="B307" s="28"/>
+      <c r="C307" s="28"/>
+      <c r="F307" s="28"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
@@ -21204,15 +21422,15 @@
       <c r="W307" s="4"/>
       <c r="X307" s="4"/>
       <c r="Y307" s="4"/>
-      <c r="Z307" s="31"/>
+      <c r="Z307" s="32"/>
       <c r="AA307" s="4"/>
-      <c r="BE307" s="27"/>
+      <c r="BE307" s="28"/>
     </row>
     <row r="308" spans="1:57">
-      <c r="A308" s="26"/>
-      <c r="B308" s="27"/>
-      <c r="C308" s="27"/>
-      <c r="F308" s="27"/>
+      <c r="A308" s="27"/>
+      <c r="B308" s="28"/>
+      <c r="C308" s="28"/>
+      <c r="F308" s="28"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
@@ -21232,15 +21450,15 @@
       <c r="W308" s="4"/>
       <c r="X308" s="4"/>
       <c r="Y308" s="4"/>
-      <c r="Z308" s="31"/>
+      <c r="Z308" s="32"/>
       <c r="AA308" s="4"/>
-      <c r="BE308" s="27"/>
+      <c r="BE308" s="28"/>
     </row>
     <row r="309" spans="1:57">
-      <c r="A309" s="26"/>
-      <c r="B309" s="27"/>
-      <c r="C309" s="27"/>
-      <c r="F309" s="27"/>
+      <c r="A309" s="27"/>
+      <c r="B309" s="28"/>
+      <c r="C309" s="28"/>
+      <c r="F309" s="28"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
@@ -21260,15 +21478,15 @@
       <c r="W309" s="4"/>
       <c r="X309" s="4"/>
       <c r="Y309" s="4"/>
-      <c r="Z309" s="31"/>
+      <c r="Z309" s="32"/>
       <c r="AA309" s="4"/>
-      <c r="BE309" s="27"/>
+      <c r="BE309" s="28"/>
     </row>
     <row r="310" spans="1:57">
-      <c r="A310" s="26"/>
-      <c r="B310" s="27"/>
-      <c r="C310" s="27"/>
-      <c r="F310" s="27"/>
+      <c r="A310" s="27"/>
+      <c r="B310" s="28"/>
+      <c r="C310" s="28"/>
+      <c r="F310" s="28"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
@@ -21288,15 +21506,15 @@
       <c r="W310" s="4"/>
       <c r="X310" s="4"/>
       <c r="Y310" s="4"/>
-      <c r="Z310" s="31"/>
+      <c r="Z310" s="32"/>
       <c r="AA310" s="4"/>
-      <c r="BE310" s="27"/>
+      <c r="BE310" s="28"/>
     </row>
     <row r="311" spans="1:57">
-      <c r="A311" s="26"/>
-      <c r="B311" s="27"/>
-      <c r="C311" s="27"/>
-      <c r="F311" s="27"/>
+      <c r="A311" s="27"/>
+      <c r="B311" s="28"/>
+      <c r="C311" s="28"/>
+      <c r="F311" s="28"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
@@ -21316,15 +21534,15 @@
       <c r="W311" s="4"/>
       <c r="X311" s="4"/>
       <c r="Y311" s="4"/>
-      <c r="Z311" s="31"/>
+      <c r="Z311" s="32"/>
       <c r="AA311" s="4"/>
-      <c r="BE311" s="27"/>
+      <c r="BE311" s="28"/>
     </row>
     <row r="312" spans="1:57">
-      <c r="A312" s="26"/>
-      <c r="B312" s="27"/>
-      <c r="C312" s="27"/>
-      <c r="F312" s="27"/>
+      <c r="A312" s="27"/>
+      <c r="B312" s="28"/>
+      <c r="C312" s="28"/>
+      <c r="F312" s="28"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
@@ -21344,15 +21562,15 @@
       <c r="W312" s="4"/>
       <c r="X312" s="4"/>
       <c r="Y312" s="4"/>
-      <c r="Z312" s="31"/>
+      <c r="Z312" s="32"/>
       <c r="AA312" s="4"/>
-      <c r="BE312" s="27"/>
+      <c r="BE312" s="28"/>
     </row>
     <row r="313" spans="1:57">
-      <c r="A313" s="26"/>
-      <c r="B313" s="27"/>
-      <c r="C313" s="27"/>
-      <c r="F313" s="27"/>
+      <c r="A313" s="27"/>
+      <c r="B313" s="28"/>
+      <c r="C313" s="28"/>
+      <c r="F313" s="28"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
@@ -21372,15 +21590,15 @@
       <c r="W313" s="4"/>
       <c r="X313" s="4"/>
       <c r="Y313" s="4"/>
-      <c r="Z313" s="31"/>
+      <c r="Z313" s="32"/>
       <c r="AA313" s="4"/>
-      <c r="BE313" s="27"/>
+      <c r="BE313" s="28"/>
     </row>
     <row r="314" spans="1:57">
-      <c r="A314" s="26"/>
-      <c r="B314" s="27"/>
-      <c r="C314" s="27"/>
-      <c r="F314" s="27"/>
+      <c r="A314" s="27"/>
+      <c r="B314" s="28"/>
+      <c r="C314" s="28"/>
+      <c r="F314" s="28"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
@@ -21400,15 +21618,15 @@
       <c r="W314" s="4"/>
       <c r="X314" s="4"/>
       <c r="Y314" s="4"/>
-      <c r="Z314" s="31"/>
+      <c r="Z314" s="32"/>
       <c r="AA314" s="4"/>
-      <c r="BE314" s="27"/>
+      <c r="BE314" s="28"/>
     </row>
     <row r="315" spans="1:57">
-      <c r="A315" s="26"/>
-      <c r="B315" s="27"/>
-      <c r="C315" s="27"/>
-      <c r="F315" s="27"/>
+      <c r="A315" s="27"/>
+      <c r="B315" s="28"/>
+      <c r="C315" s="28"/>
+      <c r="F315" s="28"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
@@ -21428,15 +21646,15 @@
       <c r="W315" s="4"/>
       <c r="X315" s="4"/>
       <c r="Y315" s="4"/>
-      <c r="Z315" s="31"/>
+      <c r="Z315" s="32"/>
       <c r="AA315" s="4"/>
-      <c r="BE315" s="27"/>
+      <c r="BE315" s="28"/>
     </row>
     <row r="316" spans="1:57">
-      <c r="A316" s="26"/>
-      <c r="B316" s="27"/>
-      <c r="C316" s="27"/>
-      <c r="F316" s="27"/>
+      <c r="A316" s="27"/>
+      <c r="B316" s="28"/>
+      <c r="C316" s="28"/>
+      <c r="F316" s="28"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
@@ -21456,15 +21674,15 @@
       <c r="W316" s="4"/>
       <c r="X316" s="4"/>
       <c r="Y316" s="4"/>
-      <c r="Z316" s="31"/>
+      <c r="Z316" s="32"/>
       <c r="AA316" s="4"/>
-      <c r="BE316" s="27"/>
+      <c r="BE316" s="28"/>
     </row>
     <row r="317" spans="1:57">
-      <c r="A317" s="26"/>
-      <c r="B317" s="27"/>
-      <c r="C317" s="27"/>
-      <c r="F317" s="27"/>
+      <c r="A317" s="27"/>
+      <c r="B317" s="28"/>
+      <c r="C317" s="28"/>
+      <c r="F317" s="28"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
@@ -21484,15 +21702,15 @@
       <c r="W317" s="4"/>
       <c r="X317" s="4"/>
       <c r="Y317" s="4"/>
-      <c r="Z317" s="31"/>
+      <c r="Z317" s="32"/>
       <c r="AA317" s="4"/>
-      <c r="BE317" s="27"/>
+      <c r="BE317" s="28"/>
     </row>
     <row r="318" spans="1:57">
-      <c r="A318" s="26"/>
-      <c r="B318" s="27"/>
-      <c r="C318" s="27"/>
-      <c r="F318" s="27"/>
+      <c r="A318" s="27"/>
+      <c r="B318" s="28"/>
+      <c r="C318" s="28"/>
+      <c r="F318" s="28"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
@@ -21512,15 +21730,15 @@
       <c r="W318" s="4"/>
       <c r="X318" s="4"/>
       <c r="Y318" s="4"/>
-      <c r="Z318" s="31"/>
+      <c r="Z318" s="32"/>
       <c r="AA318" s="4"/>
-      <c r="BE318" s="27"/>
+      <c r="BE318" s="28"/>
     </row>
     <row r="319" spans="1:57">
-      <c r="A319" s="26"/>
-      <c r="B319" s="27"/>
-      <c r="C319" s="27"/>
-      <c r="F319" s="27"/>
+      <c r="A319" s="27"/>
+      <c r="B319" s="28"/>
+      <c r="C319" s="28"/>
+      <c r="F319" s="28"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
@@ -21540,15 +21758,15 @@
       <c r="W319" s="4"/>
       <c r="X319" s="4"/>
       <c r="Y319" s="4"/>
-      <c r="Z319" s="31"/>
+      <c r="Z319" s="32"/>
       <c r="AA319" s="4"/>
-      <c r="BE319" s="27"/>
+      <c r="BE319" s="28"/>
     </row>
     <row r="320" spans="1:57">
-      <c r="A320" s="26"/>
-      <c r="B320" s="27"/>
-      <c r="C320" s="27"/>
-      <c r="F320" s="27"/>
+      <c r="A320" s="27"/>
+      <c r="B320" s="28"/>
+      <c r="C320" s="28"/>
+      <c r="F320" s="28"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
@@ -21568,15 +21786,15 @@
       <c r="W320" s="4"/>
       <c r="X320" s="4"/>
       <c r="Y320" s="4"/>
-      <c r="Z320" s="31"/>
+      <c r="Z320" s="32"/>
       <c r="AA320" s="4"/>
-      <c r="BE320" s="27"/>
+      <c r="BE320" s="28"/>
     </row>
     <row r="321" spans="1:57">
-      <c r="A321" s="26"/>
-      <c r="B321" s="27"/>
-      <c r="C321" s="27"/>
-      <c r="F321" s="27"/>
+      <c r="A321" s="27"/>
+      <c r="B321" s="28"/>
+      <c r="C321" s="28"/>
+      <c r="F321" s="28"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
@@ -21596,15 +21814,15 @@
       <c r="W321" s="4"/>
       <c r="X321" s="4"/>
       <c r="Y321" s="4"/>
-      <c r="Z321" s="31"/>
+      <c r="Z321" s="32"/>
       <c r="AA321" s="4"/>
-      <c r="BE321" s="27"/>
+      <c r="BE321" s="28"/>
     </row>
     <row r="322" spans="1:57">
-      <c r="A322" s="26"/>
-      <c r="B322" s="27"/>
-      <c r="C322" s="27"/>
-      <c r="F322" s="27"/>
+      <c r="A322" s="27"/>
+      <c r="B322" s="28"/>
+      <c r="C322" s="28"/>
+      <c r="F322" s="28"/>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
@@ -21624,9 +21842,9 @@
       <c r="W322" s="4"/>
       <c r="X322" s="4"/>
       <c r="Y322" s="4"/>
-      <c r="Z322" s="31"/>
+      <c r="Z322" s="32"/>
       <c r="AA322" s="4"/>
-      <c r="BE322" s="27"/>
+      <c r="BE322" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="8">
